--- a/opm_hero_property/heroes/62.xlsx
+++ b/opm_hero_property/heroes/62.xlsx
@@ -14,6 +14,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="talent" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="mechanical" sheetId="6" state="visible" r:id="rId6"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="limiter" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="status" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1197,7 +1198,7 @@
         <v>11019</v>
       </c>
       <c r="D4" t="n">
-        <v>11019</v>
+        <v>11765</v>
       </c>
       <c r="E4" t="n">
         <v>266</v>
@@ -1304,7 +1305,7 @@
         <v>12175</v>
       </c>
       <c r="D5" t="n">
-        <v>12175</v>
+        <v>13766</v>
       </c>
       <c r="E5" t="n">
         <v>399</v>
@@ -1411,7 +1412,7 @@
         <v>13534</v>
       </c>
       <c r="D6" t="n">
-        <v>13534</v>
+        <v>16120</v>
       </c>
       <c r="E6" t="n">
         <v>546</v>
@@ -1518,7 +1519,7 @@
         <v>15097</v>
       </c>
       <c r="D7" t="n">
-        <v>15097</v>
+        <v>21033</v>
       </c>
       <c r="E7" t="n">
         <v>1024</v>
@@ -1625,7 +1626,7 @@
         <v>16864</v>
       </c>
       <c r="D8" t="n">
-        <v>16864</v>
+        <v>27830</v>
       </c>
       <c r="E8" t="n">
         <v>1517</v>
@@ -1732,7 +1733,7 @@
         <v>18903</v>
       </c>
       <c r="D9" t="n">
-        <v>18903</v>
+        <v>36980</v>
       </c>
       <c r="E9" t="n">
         <v>2002</v>
@@ -1839,7 +1840,7 @@
         <v>19991</v>
       </c>
       <c r="D10" t="n">
-        <v>19991</v>
+        <v>44601</v>
       </c>
       <c r="E10" t="n">
         <v>2366</v>
@@ -1946,7 +1947,7 @@
         <v>21282</v>
       </c>
       <c r="D11" t="n">
-        <v>21282</v>
+        <v>53957</v>
       </c>
       <c r="E11" t="n">
         <v>2761</v>
@@ -2053,7 +2054,7 @@
         <v>24001</v>
       </c>
       <c r="D12" t="n">
-        <v>24001</v>
+        <v>70610</v>
       </c>
       <c r="E12" t="n">
         <v>3398</v>
@@ -2160,7 +2161,7 @@
         <v>24545</v>
       </c>
       <c r="D13" t="n">
-        <v>24545</v>
+        <v>72964</v>
       </c>
       <c r="E13" t="n">
         <v>3822</v>
@@ -2267,7 +2268,7 @@
         <v>25088</v>
       </c>
       <c r="D14" t="n">
-        <v>25088</v>
+        <v>75317</v>
       </c>
       <c r="E14" t="n">
         <v>4247</v>
@@ -2374,7 +2375,7 @@
         <v>25632</v>
       </c>
       <c r="D15" t="n">
-        <v>25632</v>
+        <v>77671</v>
       </c>
       <c r="E15" t="n">
         <v>4672</v>
@@ -2481,7 +2482,7 @@
         <v>26176</v>
       </c>
       <c r="D16" t="n">
-        <v>26176</v>
+        <v>80025</v>
       </c>
       <c r="E16" t="n">
         <v>5097</v>
@@ -2588,7 +2589,7 @@
         <v>26719</v>
       </c>
       <c r="D17" t="n">
-        <v>26719</v>
+        <v>82379</v>
       </c>
       <c r="E17" t="n">
         <v>5521</v>
@@ -6874,4 +6875,2652 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:AK23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>战斗类型</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>品质</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>pve等级</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>等级强化</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>装备品质%</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>装备强化%</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>天赋</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>研究所核心</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>职阶</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>限制器</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>机械核心</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>HeroId</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Quality</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>EnhancePeriod</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>Equips</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>TalentLevel</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
+          <t>Skills</t>
+        </is>
+      </c>
+      <c r="T1" t="inlineStr">
+        <is>
+          <t>hp</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>atk</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
+          <t>def</t>
+        </is>
+      </c>
+      <c r="W1" t="inlineStr">
+        <is>
+          <t>crit</t>
+        </is>
+      </c>
+      <c r="X1" t="inlineStr">
+        <is>
+          <t>crit_res</t>
+        </is>
+      </c>
+      <c r="Y1" t="inlineStr">
+        <is>
+          <t>crit_dmg</t>
+        </is>
+      </c>
+      <c r="Z1" t="inlineStr">
+        <is>
+          <t>precise</t>
+        </is>
+      </c>
+      <c r="AA1" t="inlineStr">
+        <is>
+          <t>parry</t>
+        </is>
+      </c>
+      <c r="AB1" t="inlineStr">
+        <is>
+          <t>dmg_res</t>
+        </is>
+      </c>
+      <c r="AC1" t="inlineStr">
+        <is>
+          <t>fury</t>
+        </is>
+      </c>
+      <c r="AD1" t="inlineStr">
+        <is>
+          <t>show_level</t>
+        </is>
+      </c>
+      <c r="AE1" t="inlineStr">
+        <is>
+          <t>chase</t>
+        </is>
+      </c>
+      <c r="AF1" t="inlineStr">
+        <is>
+          <t>academy</t>
+        </is>
+      </c>
+      <c r="AG1" t="inlineStr">
+        <is>
+          <t>job</t>
+        </is>
+      </c>
+      <c r="AH1" t="inlineStr">
+        <is>
+          <t>limiter</t>
+        </is>
+      </c>
+      <c r="AI1" t="inlineStr">
+        <is>
+          <t>mechanical</t>
+        </is>
+      </c>
+      <c r="AJ1" t="inlineStr">
+        <is>
+          <t>aura</t>
+        </is>
+      </c>
+      <c r="AK1" t="inlineStr">
+        <is>
+          <t>type_aura</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C2" t="n">
+        <v>81</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>62</v>
+      </c>
+      <c r="M2" t="n">
+        <v>2</v>
+      </c>
+      <c r="N2" t="n">
+        <v>5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>81</v>
+      </c>
+      <c r="P2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S2" t="inlineStr">
+        <is>
+          <t>3,2,1,1,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T2" t="n">
+        <v>29079.3708876</v>
+      </c>
+      <c r="U2" t="n">
+        <v>5638.3843488</v>
+      </c>
+      <c r="V2" t="n">
+        <v>2024.532</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X2" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB2" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ2" t="inlineStr"/>
+      <c r="AK2" t="inlineStr"/>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>121</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>7</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>62</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="n">
+        <v>7</v>
+      </c>
+      <c r="O3" t="n">
+        <v>121</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S3" t="inlineStr">
+        <is>
+          <t>3,2,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T3" t="n">
+        <v>40883.9488964</v>
+      </c>
+      <c r="U3" t="n">
+        <v>8175.3341952</v>
+      </c>
+      <c r="V3" t="n">
+        <v>3153.71</v>
+      </c>
+      <c r="W3" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X3" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y3" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA3" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB3" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD3" t="n">
+        <v>121</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ3" t="inlineStr"/>
+      <c r="AK3" t="inlineStr"/>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>9</v>
+      </c>
+      <c r="C4" t="n">
+        <v>161</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>15</v>
+      </c>
+      <c r="I4" t="n">
+        <v>4</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>62</v>
+      </c>
+      <c r="M4" t="n">
+        <v>2</v>
+      </c>
+      <c r="N4" t="n">
+        <v>9</v>
+      </c>
+      <c r="O4" t="n">
+        <v>161</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,0,0,0,0</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
+        <v>74512.47540920001</v>
+      </c>
+      <c r="U4" t="n">
+        <v>14360.8252</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6884.878000000001</v>
+      </c>
+      <c r="W4" t="n">
+        <v>1500</v>
+      </c>
+      <c r="X4" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ4" t="inlineStr"/>
+      <c r="AK4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>9</v>
+      </c>
+      <c r="C5" t="n">
+        <v>161</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>15</v>
+      </c>
+      <c r="I5" t="n">
+        <v>5</v>
+      </c>
+      <c r="J5" t="n">
+        <v>1</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>62</v>
+      </c>
+      <c r="M5" t="n">
+        <v>2</v>
+      </c>
+      <c r="N5" t="n">
+        <v>9</v>
+      </c>
+      <c r="O5" t="n">
+        <v>161</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>4,3,2,2,0,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
+        <v>74512.47540920001</v>
+      </c>
+      <c r="U5" t="n">
+        <v>14360.8252</v>
+      </c>
+      <c r="V5" t="n">
+        <v>6884.878000000001</v>
+      </c>
+      <c r="W5" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X5" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>2000</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ5" t="inlineStr"/>
+      <c r="AK5" t="inlineStr"/>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" t="n">
+        <v>161</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>5</v>
+      </c>
+      <c r="J6" t="n">
+        <v>2</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>62</v>
+      </c>
+      <c r="M6" t="n">
+        <v>2</v>
+      </c>
+      <c r="N6" t="n">
+        <v>9</v>
+      </c>
+      <c r="O6" t="n">
+        <v>161</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="n">
+        <v>0</v>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>4,3,2,2,1,1,0,0,2</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
+        <v>69518.3729612</v>
+      </c>
+      <c r="U6" t="n">
+        <v>12048.3372</v>
+      </c>
+      <c r="V6" t="n">
+        <v>6884.878000000001</v>
+      </c>
+      <c r="W6" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X6" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>161</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ6" t="inlineStr"/>
+      <c r="AK6" t="inlineStr"/>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>11</v>
+      </c>
+      <c r="C7" t="n">
+        <v>240</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>10</v>
+      </c>
+      <c r="F7" t="n">
+        <v>5</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>25</v>
+      </c>
+      <c r="I7" t="n">
+        <v>15</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>62</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="n">
+        <v>11</v>
+      </c>
+      <c r="O7" t="n">
+        <v>240</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>5,3,3,3,0,2,1,0,0</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
+        <v>274670.0104652</v>
+      </c>
+      <c r="U7" t="n">
+        <v>50087.231488</v>
+      </c>
+      <c r="V7" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W7" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X7" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y7" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z7" t="n">
+        <v>2960</v>
+      </c>
+      <c r="AA7" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB7" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD7" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ7" t="inlineStr"/>
+      <c r="AK7" t="inlineStr"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>11</v>
+      </c>
+      <c r="C8" t="n">
+        <v>240</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>10</v>
+      </c>
+      <c r="F8" t="n">
+        <v>5</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>25</v>
+      </c>
+      <c r="I8" t="n">
+        <v>15</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>62</v>
+      </c>
+      <c r="M8" t="n">
+        <v>2</v>
+      </c>
+      <c r="N8" t="n">
+        <v>11</v>
+      </c>
+      <c r="O8" t="n">
+        <v>240</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,2,1,0,1</t>
+        </is>
+      </c>
+      <c r="T8" t="n">
+        <v>251683.6513772</v>
+      </c>
+      <c r="U8" t="n">
+        <v>40393.44076800001</v>
+      </c>
+      <c r="V8" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W8" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X8" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y8" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z8" t="n">
+        <v>2160</v>
+      </c>
+      <c r="AA8" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB8" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr"/>
+      <c r="AK8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>11</v>
+      </c>
+      <c r="C9" t="n">
+        <v>240</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
+        <v>5</v>
+      </c>
+      <c r="G9" t="n">
+        <v>10</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+      <c r="I9" t="n">
+        <v>15</v>
+      </c>
+      <c r="J9" t="n">
+        <v>5</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>62</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="n">
+        <v>11</v>
+      </c>
+      <c r="O9" t="n">
+        <v>240</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="n">
+        <v>10</v>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
+        <v>257430.2411492</v>
+      </c>
+      <c r="U9" t="n">
+        <v>42816.88844800001</v>
+      </c>
+      <c r="V9" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X9" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y9" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z9" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA9" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB9" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD9" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr"/>
+      <c r="AK9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>11</v>
+      </c>
+      <c r="C10" t="n">
+        <v>240</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>10</v>
+      </c>
+      <c r="F10" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" t="n">
+        <v>20</v>
+      </c>
+      <c r="H10" t="n">
+        <v>25</v>
+      </c>
+      <c r="I10" t="n">
+        <v>15</v>
+      </c>
+      <c r="J10" t="n">
+        <v>5</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>62</v>
+      </c>
+      <c r="M10" t="n">
+        <v>2</v>
+      </c>
+      <c r="N10" t="n">
+        <v>11</v>
+      </c>
+      <c r="O10" t="n">
+        <v>240</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="n">
+        <v>20</v>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
+        <v>263176.8309212</v>
+      </c>
+      <c r="U10" t="n">
+        <v>45240.336128</v>
+      </c>
+      <c r="V10" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W10" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X10" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y10" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z10" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA10" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB10" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD10" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr"/>
+      <c r="AK10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>11</v>
+      </c>
+      <c r="C11" t="n">
+        <v>240</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>10</v>
+      </c>
+      <c r="F11" t="n">
+        <v>5</v>
+      </c>
+      <c r="G11" t="n">
+        <v>30</v>
+      </c>
+      <c r="H11" t="n">
+        <v>25</v>
+      </c>
+      <c r="I11" t="n">
+        <v>15</v>
+      </c>
+      <c r="J11" t="n">
+        <v>10</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>62</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="n">
+        <v>11</v>
+      </c>
+      <c r="O11" t="n">
+        <v>240</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="n">
+        <v>30</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,1,0,10</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>268923.4206932</v>
+      </c>
+      <c r="U11" t="n">
+        <v>47663.78380800001</v>
+      </c>
+      <c r="V11" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W11" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X11" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr"/>
+      <c r="AK11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>240</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>10</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>30</v>
+      </c>
+      <c r="H12" t="n">
+        <v>25</v>
+      </c>
+      <c r="I12" t="n">
+        <v>14</v>
+      </c>
+      <c r="J12" t="n">
+        <v>5</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>62</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>11</v>
+      </c>
+      <c r="O12" t="n">
+        <v>240</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="n">
+        <v>30</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,0,0,5</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>268923.4206932</v>
+      </c>
+      <c r="U12" t="n">
+        <v>47663.78380800001</v>
+      </c>
+      <c r="V12" t="n">
+        <v>30377.327</v>
+      </c>
+      <c r="W12" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X12" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA12" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB12" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD12" t="n">
+        <v>240</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>14</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr"/>
+      <c r="AK12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>13</v>
+      </c>
+      <c r="C13" t="n">
+        <v>260</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>10</v>
+      </c>
+      <c r="F13" t="n">
+        <v>5</v>
+      </c>
+      <c r="G13" t="n">
+        <v>30</v>
+      </c>
+      <c r="H13" t="n">
+        <v>35</v>
+      </c>
+      <c r="I13" t="n">
+        <v>24</v>
+      </c>
+      <c r="J13" t="n">
+        <v>6</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>62</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
+      <c r="N13" t="n">
+        <v>13</v>
+      </c>
+      <c r="O13" t="n">
+        <v>260</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="n">
+        <v>30</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,0,6</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>401099.8066674</v>
+      </c>
+      <c r="U13" t="n">
+        <v>70667.72111360001</v>
+      </c>
+      <c r="V13" t="n">
+        <v>51598.5766</v>
+      </c>
+      <c r="W13" t="n">
+        <v>2620</v>
+      </c>
+      <c r="X13" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA13" t="n">
+        <v>3840</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD13" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>24</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>6</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr"/>
+      <c r="AK13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>260</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>10</v>
+      </c>
+      <c r="F14" t="n">
+        <v>5</v>
+      </c>
+      <c r="G14" t="n">
+        <v>30</v>
+      </c>
+      <c r="H14" t="n">
+        <v>35</v>
+      </c>
+      <c r="I14" t="n">
+        <v>25</v>
+      </c>
+      <c r="J14" t="n">
+        <v>7</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>62</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="n">
+        <v>13</v>
+      </c>
+      <c r="O14" t="n">
+        <v>260</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="n">
+        <v>30</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>401099.8066674</v>
+      </c>
+      <c r="U14" t="n">
+        <v>70667.72111360001</v>
+      </c>
+      <c r="V14" t="n">
+        <v>51598.5766</v>
+      </c>
+      <c r="W14" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X14" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z14" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA14" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB14" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD14" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr"/>
+      <c r="AK14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>15</v>
+      </c>
+      <c r="C15" t="n">
+        <v>300</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>10</v>
+      </c>
+      <c r="F15" t="n">
+        <v>5</v>
+      </c>
+      <c r="G15" t="n">
+        <v>30</v>
+      </c>
+      <c r="H15" t="n">
+        <v>55</v>
+      </c>
+      <c r="I15" t="n">
+        <v>45</v>
+      </c>
+      <c r="J15" t="n">
+        <v>8</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>62</v>
+      </c>
+      <c r="M15" t="n">
+        <v>2</v>
+      </c>
+      <c r="N15" t="n">
+        <v>15</v>
+      </c>
+      <c r="O15" t="n">
+        <v>300</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="n">
+        <v>30</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>981723.3916169001</v>
+      </c>
+      <c r="U15" t="n">
+        <v>170643.9914496</v>
+      </c>
+      <c r="V15" t="n">
+        <v>146412.3</v>
+      </c>
+      <c r="W15" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X15" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y15" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z15" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA15" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB15" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD15" t="n">
+        <v>300</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr"/>
+      <c r="AK15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>400</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>10</v>
+      </c>
+      <c r="F16" t="n">
+        <v>5</v>
+      </c>
+      <c r="G16" t="n">
+        <v>30</v>
+      </c>
+      <c r="H16" t="n">
+        <v>95</v>
+      </c>
+      <c r="I16" t="n">
+        <v>85</v>
+      </c>
+      <c r="J16" t="n">
+        <v>10</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>62</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="n">
+        <v>16</v>
+      </c>
+      <c r="O16" t="n">
+        <v>400</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="n">
+        <v>30</v>
+      </c>
+      <c r="S16" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T16" t="n">
+        <v>5077414.3498026</v>
+      </c>
+      <c r="U16" t="n">
+        <v>893347.4570015999</v>
+      </c>
+      <c r="V16" t="n">
+        <v>734689.6233000001</v>
+      </c>
+      <c r="W16" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X16" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y16" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z16" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA16" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB16" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD16" t="n">
+        <v>400</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr"/>
+      <c r="AK16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>pve</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>500</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>10</v>
+      </c>
+      <c r="F17" t="n">
+        <v>5</v>
+      </c>
+      <c r="G17" t="n">
+        <v>30</v>
+      </c>
+      <c r="H17" t="n">
+        <v>160</v>
+      </c>
+      <c r="I17" t="n">
+        <v>150</v>
+      </c>
+      <c r="J17" t="n">
+        <v>10</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>62</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="n">
+        <v>16</v>
+      </c>
+      <c r="O17" t="n">
+        <v>500</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="n">
+        <v>30</v>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T17" t="n">
+        <v>8306898.955763301</v>
+      </c>
+      <c r="U17" t="n">
+        <v>1459640.4519264</v>
+      </c>
+      <c r="V17" t="n">
+        <v>1194853.9356</v>
+      </c>
+      <c r="W17" t="n">
+        <v>4700</v>
+      </c>
+      <c r="X17" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y17" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z17" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA17" t="n">
+        <v>5400</v>
+      </c>
+      <c r="AB17" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD17" t="n">
+        <v>500</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>160</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr"/>
+      <c r="AK17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>9</v>
+      </c>
+      <c r="C18" t="n">
+        <v>161</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>9</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" t="n">
+        <v>15</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5</v>
+      </c>
+      <c r="J18" t="n">
+        <v>1</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>62</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="n">
+        <v>9</v>
+      </c>
+      <c r="O18" t="n">
+        <v>256</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="inlineStr"/>
+      <c r="R18" t="n">
+        <v>0</v>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>5,3,3,3,1,1,0,0,1</t>
+        </is>
+      </c>
+      <c r="T18" t="n">
+        <v>235332.8395043</v>
+      </c>
+      <c r="U18" t="n">
+        <v>41213.7102704</v>
+      </c>
+      <c r="V18" t="n">
+        <v>27656.1508</v>
+      </c>
+      <c r="W18" t="n">
+        <v>1580</v>
+      </c>
+      <c r="X18" t="n">
+        <v>400</v>
+      </c>
+      <c r="Y18" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z18" t="n">
+        <v>1200</v>
+      </c>
+      <c r="AA18" t="n">
+        <v>2060</v>
+      </c>
+      <c r="AB18" t="n">
+        <v>600</v>
+      </c>
+      <c r="AC18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD18" t="n">
+        <v>256</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>5</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr"/>
+      <c r="AK18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>10</v>
+      </c>
+      <c r="C19" t="n">
+        <v>200</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>9</v>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>10</v>
+      </c>
+      <c r="H19" t="n">
+        <v>20</v>
+      </c>
+      <c r="I19" t="n">
+        <v>10</v>
+      </c>
+      <c r="J19" t="n">
+        <v>2</v>
+      </c>
+      <c r="K19" t="n">
+        <v>0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>62</v>
+      </c>
+      <c r="M19" t="n">
+        <v>2</v>
+      </c>
+      <c r="N19" t="n">
+        <v>10</v>
+      </c>
+      <c r="O19" t="n">
+        <v>260</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q19" t="inlineStr"/>
+      <c r="R19" t="n">
+        <v>10</v>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>5,3,3,3,2,2,0,0,2</t>
+        </is>
+      </c>
+      <c r="T19" t="n">
+        <v>310549.4206447999</v>
+      </c>
+      <c r="U19" t="n">
+        <v>54364.8029824</v>
+      </c>
+      <c r="V19" t="n">
+        <v>37423.6486</v>
+      </c>
+      <c r="W19" t="n">
+        <v>2460</v>
+      </c>
+      <c r="X19" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>2360</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>3720</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>260</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>20</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr"/>
+      <c r="AK19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>11</v>
+      </c>
+      <c r="C20" t="n">
+        <v>240</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>10</v>
+      </c>
+      <c r="F20" t="n">
+        <v>5</v>
+      </c>
+      <c r="G20" t="n">
+        <v>20</v>
+      </c>
+      <c r="H20" t="n">
+        <v>25</v>
+      </c>
+      <c r="I20" t="n">
+        <v>15</v>
+      </c>
+      <c r="J20" t="n">
+        <v>5</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>62</v>
+      </c>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="n">
+        <v>11</v>
+      </c>
+      <c r="O20" t="n">
+        <v>264</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="inlineStr"/>
+      <c r="R20" t="n">
+        <v>20</v>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>5,3,3,3,3,2,1,0,5</t>
+        </is>
+      </c>
+      <c r="T20" t="n">
+        <v>394305.7064068</v>
+      </c>
+      <c r="U20" t="n">
+        <v>68774.7931888</v>
+      </c>
+      <c r="V20" t="n">
+        <v>51385.269</v>
+      </c>
+      <c r="W20" t="n">
+        <v>2540</v>
+      </c>
+      <c r="X20" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y20" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>2560</v>
+      </c>
+      <c r="AA20" t="n">
+        <v>3780</v>
+      </c>
+      <c r="AB20" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD20" t="n">
+        <v>264</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>25</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>5</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr"/>
+      <c r="AK20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>13</v>
+      </c>
+      <c r="C21" t="n">
+        <v>260</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>10</v>
+      </c>
+      <c r="F21" t="n">
+        <v>5</v>
+      </c>
+      <c r="G21" t="n">
+        <v>30</v>
+      </c>
+      <c r="H21" t="n">
+        <v>35</v>
+      </c>
+      <c r="I21" t="n">
+        <v>25</v>
+      </c>
+      <c r="J21" t="n">
+        <v>7</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>62</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="n">
+        <v>13</v>
+      </c>
+      <c r="O21" t="n">
+        <v>266</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr"/>
+      <c r="R21" t="n">
+        <v>30</v>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,2,2,1,7</t>
+        </is>
+      </c>
+      <c r="T21" t="n">
+        <v>446795.4230873</v>
+      </c>
+      <c r="U21" t="n">
+        <v>81678.83201280001</v>
+      </c>
+      <c r="V21" t="n">
+        <v>59228.8487</v>
+      </c>
+      <c r="W21" t="n">
+        <v>2700</v>
+      </c>
+      <c r="X21" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z21" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA21" t="n">
+        <v>3900</v>
+      </c>
+      <c r="AB21" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>266</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>35</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>25</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>7</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr"/>
+      <c r="AK21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>15</v>
+      </c>
+      <c r="C22" t="n">
+        <v>300</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>10</v>
+      </c>
+      <c r="F22" t="n">
+        <v>5</v>
+      </c>
+      <c r="G22" t="n">
+        <v>30</v>
+      </c>
+      <c r="H22" t="n">
+        <v>55</v>
+      </c>
+      <c r="I22" t="n">
+        <v>45</v>
+      </c>
+      <c r="J22" t="n">
+        <v>8</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>62</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="n">
+        <v>15</v>
+      </c>
+      <c r="O22" t="n">
+        <v>270</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="inlineStr"/>
+      <c r="R22" t="n">
+        <v>30</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>516253.94011</v>
+      </c>
+      <c r="U22" t="n">
+        <v>98042.5645952</v>
+      </c>
+      <c r="V22" t="n">
+        <v>72763.32250000001</v>
+      </c>
+      <c r="W22" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X22" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y22" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z22" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA22" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB22" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD22" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE22" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF22" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG22" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH22" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr"/>
+      <c r="AK22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>16</v>
+      </c>
+      <c r="C23" t="n">
+        <v>400</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>10</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>30</v>
+      </c>
+      <c r="H23" t="n">
+        <v>95</v>
+      </c>
+      <c r="I23" t="n">
+        <v>85</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>62</v>
+      </c>
+      <c r="M23" t="n">
+        <v>2</v>
+      </c>
+      <c r="N23" t="n">
+        <v>16</v>
+      </c>
+      <c r="O23" t="n">
+        <v>280</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="inlineStr"/>
+      <c r="R23" t="n">
+        <v>30</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>657834.3028077</v>
+      </c>
+      <c r="U23" t="n">
+        <v>131622.6341792</v>
+      </c>
+      <c r="V23" t="n">
+        <v>100153.7449</v>
+      </c>
+      <c r="W23" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X23" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z23" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA23" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB23" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD23" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE23" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF23" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG23" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH23" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr"/>
+      <c r="AK23" t="inlineStr"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/opm_hero_property/heroes/62.xlsx
+++ b/opm_hero_property/heroes/62.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK23"/>
+  <dimension ref="A1:AS25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7077,6 +7077,46 @@
           <t>type_aura</t>
         </is>
       </c>
+      <c r="AL1" t="inlineStr">
+        <is>
+          <t>基础战力</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>装备战力</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>天赋战力</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
+          <t>研究所战力</t>
+        </is>
+      </c>
+      <c r="AP1" t="inlineStr">
+        <is>
+          <t>职阶战力</t>
+        </is>
+      </c>
+      <c r="AQ1" t="inlineStr">
+        <is>
+          <t>机械核心战力</t>
+        </is>
+      </c>
+      <c r="AR1" t="inlineStr">
+        <is>
+          <t>限制器战力</t>
+        </is>
+      </c>
+      <c r="AS1" t="inlineStr">
+        <is>
+          <t>总战力</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -7085,31 +7125,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>16</v>
+      </c>
+      <c r="C2" t="n">
+        <v>400</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>10</v>
+      </c>
+      <c r="F2" t="n">
         <v>5</v>
       </c>
-      <c r="C2" t="n">
-        <v>81</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>5</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0</v>
-      </c>
       <c r="G2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7121,106 +7161,130 @@
         <v>2</v>
       </c>
       <c r="N2" t="n">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="O2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
       </c>
       <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>3,2,1,1,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T2" t="n">
-        <v>29079.3708876</v>
+        <v>5212291.3498026</v>
       </c>
       <c r="U2" t="n">
-        <v>5638.3843488</v>
+        <v>917075.4570015999</v>
       </c>
       <c r="V2" t="n">
-        <v>2024.532</v>
+        <v>756529.6233000001</v>
       </c>
       <c r="W2" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y2" t="n">
         <v>15000</v>
       </c>
       <c r="Z2" t="n">
-        <v>2000</v>
+        <v>2760</v>
       </c>
       <c r="AA2" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB2" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC2" t="n">
         <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>81</v>
+        <v>400</v>
       </c>
       <c r="AE2" t="n">
         <v>5000</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG2" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI2" t="n">
         <v>0</v>
       </c>
       <c r="AJ2" t="inlineStr"/>
       <c r="AK2" t="inlineStr"/>
+      <c r="AL2" t="n">
+        <v>11871577.485405</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>1431075.20168364</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS2" t="n">
+        <v>15905547.33708864</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>pve</t>
+          <t>pvp</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
-        <v>121</v>
+        <v>400</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -7232,73 +7296,97 @@
         <v>2</v>
       </c>
       <c r="N3" t="n">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="O3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
-        <v>-1</v>
+        <v>30</v>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>3,2,2,2,0,0,0,0,0</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T3" t="n">
-        <v>40883.9488964</v>
+        <v>657834.3028077</v>
       </c>
       <c r="U3" t="n">
-        <v>8175.3341952</v>
+        <v>131622.6341792</v>
       </c>
       <c r="V3" t="n">
-        <v>3153.71</v>
+        <v>100153.7449</v>
       </c>
       <c r="W3" t="n">
-        <v>1500</v>
+        <v>3660</v>
       </c>
       <c r="X3" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y3" t="n">
         <v>15000</v>
       </c>
       <c r="Z3" t="n">
-        <v>2000</v>
+        <v>2760</v>
       </c>
       <c r="AA3" t="n">
-        <v>2000</v>
+        <v>4620</v>
       </c>
       <c r="AB3" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC3" t="n">
         <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>121</v>
+        <v>280</v>
       </c>
       <c r="AE3" t="n">
         <v>5000</v>
       </c>
       <c r="AF3" t="n">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="AG3" t="n">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="AH3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AI3" t="n">
         <v>0</v>
       </c>
       <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
+      <c r="AL3" t="n">
+        <v>1346174.777585</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>161614.73423418</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>2157304.51181918</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -7307,16 +7395,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -7325,10 +7413,10 @@
         <v>-1</v>
       </c>
       <c r="H4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -7343,10 +7431,10 @@
         <v>2</v>
       </c>
       <c r="N4" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="O4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -7357,50 +7445,50 @@
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,0,0,0,0</t>
+          <t>3,2,1,1,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T4" t="n">
-        <v>74512.47540920001</v>
+        <v>7667.9812</v>
       </c>
       <c r="U4" t="n">
-        <v>14360.8252</v>
+        <v>1565.0846</v>
       </c>
       <c r="V4" t="n">
-        <v>6884.878000000001</v>
+        <v>616.5319999999999</v>
       </c>
       <c r="W4" t="n">
-        <v>1500</v>
+        <v>562</v>
       </c>
       <c r="X4" t="n">
-        <v>400</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="n">
         <v>15000</v>
       </c>
       <c r="Z4" t="n">
-        <v>2000</v>
+        <v>240</v>
       </c>
       <c r="AA4" t="n">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="AB4" t="n">
-        <v>600</v>
+        <v>120</v>
       </c>
       <c r="AC4" t="n">
         <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>161</v>
+        <v>81</v>
       </c>
       <c r="AE4" t="n">
         <v>5000</v>
       </c>
       <c r="AF4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
         <v>0</v>
@@ -7410,6 +7498,30 @@
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
+      <c r="AL4" t="n">
+        <v>19275.47394</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>4549.950000000001</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>23825.42394</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -7418,16 +7530,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -7436,13 +7548,13 @@
         <v>-1</v>
       </c>
       <c r="H5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -7454,10 +7566,10 @@
         <v>2</v>
       </c>
       <c r="N5" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="O5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -7468,59 +7580,83 @@
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>4,3,2,2,0,1,0,0,1</t>
+          <t>3,2,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T5" t="n">
-        <v>74512.47540920001</v>
+        <v>20621.6268</v>
       </c>
       <c r="U5" t="n">
-        <v>14360.8252</v>
+        <v>3905.4384</v>
       </c>
       <c r="V5" t="n">
-        <v>6884.878000000001</v>
+        <v>1912.71</v>
       </c>
       <c r="W5" t="n">
-        <v>1580</v>
+        <v>673</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>160</v>
       </c>
       <c r="Y5" t="n">
         <v>15000</v>
       </c>
       <c r="Z5" t="n">
-        <v>2000</v>
+        <v>480</v>
       </c>
       <c r="AA5" t="n">
-        <v>2060</v>
+        <v>800</v>
       </c>
       <c r="AB5" t="n">
-        <v>600</v>
+        <v>240</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>161</v>
+        <v>121</v>
       </c>
       <c r="AE5" t="n">
         <v>5000</v>
       </c>
       <c r="AF5" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
         <v>0</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
+      <c r="AL5" t="n">
+        <v>49461.33426</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>11988.35</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>61449.68425999999</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -7544,16 +7680,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="H6" t="n">
         <v>15</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="J6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -7575,39 +7711,39 @@
       </c>
       <c r="Q6" t="inlineStr"/>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>4,3,2,2,1,1,0,0,2</t>
+          <t>4,3,2,2,0,0,0,0,0</t>
         </is>
       </c>
       <c r="T6" t="n">
-        <v>69518.3729612</v>
+        <v>58393.5204</v>
       </c>
       <c r="U6" t="n">
-        <v>12048.3372</v>
+        <v>10050.525</v>
       </c>
       <c r="V6" t="n">
-        <v>6884.878000000001</v>
+        <v>6133.878000000001</v>
       </c>
       <c r="W6" t="n">
-        <v>1580</v>
+        <v>1000</v>
       </c>
       <c r="X6" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="Y6" t="n">
         <v>15000</v>
       </c>
       <c r="Z6" t="n">
-        <v>1200</v>
+        <v>900</v>
       </c>
       <c r="AA6" t="n">
-        <v>2060</v>
+        <v>1500</v>
       </c>
       <c r="AB6" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -7622,16 +7758,40 @@
         <v>15</v>
       </c>
       <c r="AG6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
         <v>0</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
+      <c r="AL6" t="n">
+        <v>119571.3414</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>9406.6</v>
+      </c>
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS6" t="n">
+        <v>167984.4414</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -7640,31 +7800,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F7" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>-1</v>
       </c>
       <c r="H7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="I7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -7676,10 +7836,10 @@
         <v>2</v>
       </c>
       <c r="N7" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -7690,59 +7850,83 @@
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>5,3,3,3,0,2,1,0,0</t>
+          <t>4,3,2,2,0,1,0,0,1</t>
         </is>
       </c>
       <c r="T7" t="n">
-        <v>274670.0104652</v>
+        <v>58393.5204</v>
       </c>
       <c r="U7" t="n">
-        <v>50087.231488</v>
+        <v>10050.525</v>
       </c>
       <c r="V7" t="n">
-        <v>30377.327</v>
+        <v>6133.878000000001</v>
       </c>
       <c r="W7" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X7" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y7" t="n">
         <v>15000</v>
       </c>
       <c r="Z7" t="n">
-        <v>2960</v>
+        <v>900</v>
       </c>
       <c r="AA7" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB7" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE7" t="n">
         <v>5000</v>
       </c>
       <c r="AF7" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI7" t="n">
         <v>0</v>
       </c>
       <c r="AJ7" t="inlineStr"/>
       <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>119571.3414</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS7" t="n">
+        <v>168167.4414</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -7751,31 +7935,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>15</v>
+      </c>
+      <c r="I8" t="n">
         <v>5</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>25</v>
-      </c>
-      <c r="I8" t="n">
-        <v>15</v>
-      </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -7787,10 +7971,10 @@
         <v>2</v>
       </c>
       <c r="N8" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -7801,59 +7985,83 @@
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,2,1,0,1</t>
+          <t>4,3,2,2,1,1,0,0,2</t>
         </is>
       </c>
       <c r="T8" t="n">
-        <v>251683.6513772</v>
+        <v>58518.3729612</v>
       </c>
       <c r="U8" t="n">
-        <v>40393.44076800001</v>
+        <v>10108.3372</v>
       </c>
       <c r="V8" t="n">
-        <v>30377.327</v>
+        <v>6133.878000000001</v>
       </c>
       <c r="W8" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X8" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y8" t="n">
         <v>15000</v>
       </c>
       <c r="Z8" t="n">
-        <v>2160</v>
+        <v>900</v>
       </c>
       <c r="AA8" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB8" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC8" t="n">
         <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="AE8" t="n">
         <v>5000</v>
       </c>
       <c r="AF8" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AI8" t="n">
         <v>0</v>
       </c>
       <c r="AJ8" t="inlineStr"/>
       <c r="AK8" t="inlineStr"/>
+      <c r="AL8" t="n">
+        <v>119571.3414</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>523.7567412</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>6160.5</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>9589.6</v>
+      </c>
+      <c r="AQ8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS8" t="n">
+        <v>168691.1981412</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -7877,7 +8085,7 @@
         <v>5</v>
       </c>
       <c r="G9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="H9" t="n">
         <v>25</v>
@@ -7886,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="J9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -7908,21 +8116,21 @@
       </c>
       <c r="Q9" t="inlineStr"/>
       <c r="R9" t="n">
-        <v>10</v>
+        <v>-1</v>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,1,0,5</t>
+          <t>5,3,3,3,0,2,1,0,0</t>
         </is>
       </c>
       <c r="T9" t="n">
-        <v>257430.2411492</v>
+        <v>250319.9924</v>
       </c>
       <c r="U9" t="n">
-        <v>42816.88844800001</v>
+        <v>40308.09600000001</v>
       </c>
       <c r="V9" t="n">
-        <v>30377.327</v>
+        <v>30504.327</v>
       </c>
       <c r="W9" t="n">
         <v>2540</v>
@@ -7934,7 +8142,7 @@
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2360</v>
+        <v>2160</v>
       </c>
       <c r="AA9" t="n">
         <v>3780</v>
@@ -7958,13 +8166,37 @@
         <v>15</v>
       </c>
       <c r="AH9" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
         <v>0</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
+      <c r="AL9" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS9" t="n">
+        <v>716163.73505</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -7988,7 +8220,7 @@
         <v>5</v>
       </c>
       <c r="G10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>25</v>
@@ -7997,7 +8229,7 @@
         <v>15</v>
       </c>
       <c r="J10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -8019,21 +8251,21 @@
       </c>
       <c r="Q10" t="inlineStr"/>
       <c r="R10" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,2,1,0,1</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>263176.8309212</v>
+        <v>250894.6513772</v>
       </c>
       <c r="U10" t="n">
-        <v>45240.336128</v>
+        <v>40550.44076800001</v>
       </c>
       <c r="V10" t="n">
-        <v>30377.327</v>
+        <v>30504.327</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -8045,7 +8277,7 @@
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2560</v>
+        <v>2160</v>
       </c>
       <c r="AA10" t="n">
         <v>3780</v>
@@ -8069,13 +8301,37 @@
         <v>15</v>
       </c>
       <c r="AH10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI10" t="n">
         <v>0</v>
       </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
+      <c r="AL10" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2246.8378764</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR10" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS10" t="n">
+        <v>718410.5729264</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -8099,7 +8355,7 @@
         <v>5</v>
       </c>
       <c r="G11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H11" t="n">
         <v>25</v>
@@ -8108,7 +8364,7 @@
         <v>15</v>
       </c>
       <c r="J11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8130,21 +8386,21 @@
       </c>
       <c r="Q11" t="inlineStr"/>
       <c r="R11" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,1,0,10</t>
+          <t>5,3,3,3,2,2,1,0,5</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>268923.4206932</v>
+        <v>256641.2411492</v>
       </c>
       <c r="U11" t="n">
-        <v>47663.78380800001</v>
+        <v>42973.88844800001</v>
       </c>
       <c r="V11" t="n">
-        <v>30377.327</v>
+        <v>30504.327</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -8156,7 +8412,7 @@
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2760</v>
+        <v>2360</v>
       </c>
       <c r="AA11" t="n">
         <v>3780</v>
@@ -8180,13 +8436,37 @@
         <v>15</v>
       </c>
       <c r="AH11" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AI11" t="n">
         <v>0</v>
       </c>
       <c r="AJ11" t="inlineStr"/>
       <c r="AK11" t="inlineStr"/>
+      <c r="AL11" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>24885.2166404</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR11" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS11" t="n">
+        <v>741048.9516904</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -8210,13 +8490,13 @@
         <v>5</v>
       </c>
       <c r="G12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H12" t="n">
         <v>25</v>
       </c>
       <c r="I12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="J12" t="n">
         <v>5</v>
@@ -8241,24 +8521,24 @@
       </c>
       <c r="Q12" t="inlineStr"/>
       <c r="R12" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,0,0,5</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>268923.4206932</v>
+        <v>262387.8309212</v>
       </c>
       <c r="U12" t="n">
-        <v>47663.78380800001</v>
+        <v>45397.336128</v>
       </c>
       <c r="V12" t="n">
-        <v>30377.327</v>
+        <v>30504.327</v>
       </c>
       <c r="W12" t="n">
-        <v>2460</v>
+        <v>2540</v>
       </c>
       <c r="X12" t="n">
         <v>720</v>
@@ -8267,10 +8547,10 @@
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA12" t="n">
-        <v>3720</v>
+        <v>3780</v>
       </c>
       <c r="AB12" t="n">
         <v>1080</v>
@@ -8288,7 +8568,7 @@
         <v>25</v>
       </c>
       <c r="AG12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AH12" t="n">
         <v>5</v>
@@ -8298,6 +8578,30 @@
       </c>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="inlineStr"/>
+      <c r="AL12" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>47523.5954044</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR12" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS12" t="n">
+        <v>763687.3304544</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -8306,10 +8610,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -8324,13 +8628,13 @@
         <v>30</v>
       </c>
       <c r="H13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="J13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -8342,10 +8646,10 @@
         <v>2</v>
       </c>
       <c r="N13" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -8356,20 +8660,20 @@
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,0,6</t>
+          <t>5,3,3,3,4,2,1,0,10</t>
         </is>
       </c>
       <c r="T13" t="n">
-        <v>401099.8066674</v>
+        <v>268134.4206932</v>
       </c>
       <c r="U13" t="n">
-        <v>70667.72111360001</v>
+        <v>47820.78380800001</v>
       </c>
       <c r="V13" t="n">
-        <v>51598.5766</v>
+        <v>30504.327</v>
       </c>
       <c r="W13" t="n">
-        <v>2620</v>
+        <v>2540</v>
       </c>
       <c r="X13" t="n">
         <v>720</v>
@@ -8381,7 +8685,7 @@
         <v>2760</v>
       </c>
       <c r="AA13" t="n">
-        <v>3840</v>
+        <v>3780</v>
       </c>
       <c r="AB13" t="n">
         <v>1080</v>
@@ -8390,25 +8694,49 @@
         <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE13" t="n">
         <v>5000</v>
       </c>
       <c r="AF13" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AI13" t="n">
         <v>0</v>
       </c>
       <c r="AJ13" t="inlineStr"/>
       <c r="AK13" t="inlineStr"/>
+      <c r="AL13" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>70161.97416839999</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>39130.6</v>
+      </c>
+      <c r="AQ13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR13" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS13" t="n">
+        <v>786325.7092184001</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -8417,10 +8745,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -8435,13 +8763,13 @@
         <v>30</v>
       </c>
       <c r="H14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="I14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="J14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8453,10 +8781,10 @@
         <v>2</v>
       </c>
       <c r="N14" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -8467,20 +8795,20 @@
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,4,2,0,0,5</t>
         </is>
       </c>
       <c r="T14" t="n">
-        <v>401099.8066674</v>
+        <v>268134.4206932</v>
       </c>
       <c r="U14" t="n">
-        <v>70667.72111360001</v>
+        <v>47820.78380800001</v>
       </c>
       <c r="V14" t="n">
-        <v>51598.5766</v>
+        <v>30504.327</v>
       </c>
       <c r="W14" t="n">
-        <v>2700</v>
+        <v>2460</v>
       </c>
       <c r="X14" t="n">
         <v>720</v>
@@ -8492,7 +8820,7 @@
         <v>2760</v>
       </c>
       <c r="AA14" t="n">
-        <v>3900</v>
+        <v>3720</v>
       </c>
       <c r="AB14" t="n">
         <v>1080</v>
@@ -8501,25 +8829,49 @@
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>260</v>
+        <v>240</v>
       </c>
       <c r="AE14" t="n">
         <v>5000</v>
       </c>
       <c r="AF14" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AG14" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="AH14" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI14" t="n">
         <v>0</v>
       </c>
       <c r="AJ14" t="inlineStr"/>
       <c r="AK14" t="inlineStr"/>
+      <c r="AL14" t="n">
+        <v>547643.1350499999</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>70161.97416839999</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>15121.05</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>38947.6</v>
+      </c>
+      <c r="AQ14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR14" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS14" t="n">
+        <v>786142.7092184001</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -8528,10 +8880,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -8546,13 +8898,13 @@
         <v>30</v>
       </c>
       <c r="H15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="I15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="J15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -8564,10 +8916,10 @@
         <v>2</v>
       </c>
       <c r="N15" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -8578,20 +8930,20 @@
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,4,2,2,0,6</t>
         </is>
       </c>
       <c r="T15" t="n">
-        <v>981723.3916169001</v>
+        <v>403599.8066674</v>
       </c>
       <c r="U15" t="n">
-        <v>170643.9914496</v>
+        <v>71475.72111360001</v>
       </c>
       <c r="V15" t="n">
-        <v>146412.3</v>
+        <v>52372.5766</v>
       </c>
       <c r="W15" t="n">
-        <v>3020</v>
+        <v>2620</v>
       </c>
       <c r="X15" t="n">
         <v>720</v>
@@ -8603,7 +8955,7 @@
         <v>2760</v>
       </c>
       <c r="AA15" t="n">
-        <v>4140</v>
+        <v>3840</v>
       </c>
       <c r="AB15" t="n">
         <v>1080</v>
@@ -8612,25 +8964,49 @@
         <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>300</v>
+        <v>260</v>
       </c>
       <c r="AE15" t="n">
         <v>5000</v>
       </c>
       <c r="AF15" t="n">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AG15" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="AH15" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AI15" t="n">
         <v>0</v>
       </c>
       <c r="AJ15" t="inlineStr"/>
       <c r="AK15" t="inlineStr"/>
+      <c r="AL15" t="n">
+        <v>846965.82533</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>104768.62247124</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>111712</v>
+      </c>
+      <c r="AQ15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR15" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS15" t="n">
+        <v>1210935.59780124</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -8639,10 +9015,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -8657,13 +9033,13 @@
         <v>30</v>
       </c>
       <c r="H16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -8675,10 +9051,10 @@
         <v>2</v>
       </c>
       <c r="N16" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -8689,20 +9065,20 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>5077414.3498026</v>
+        <v>403599.8066674</v>
       </c>
       <c r="U16" t="n">
-        <v>893347.4570015999</v>
+        <v>71475.72111360001</v>
       </c>
       <c r="V16" t="n">
-        <v>734689.6233000001</v>
+        <v>52372.5766</v>
       </c>
       <c r="W16" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X16" t="n">
         <v>720</v>
@@ -8714,7 +9090,7 @@
         <v>2760</v>
       </c>
       <c r="AA16" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB16" t="n">
         <v>1080</v>
@@ -8723,25 +9099,49 @@
         <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="AE16" t="n">
         <v>5000</v>
       </c>
       <c r="AF16" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG16" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH16" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI16" t="n">
         <v>0</v>
       </c>
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
+      <c r="AL16" t="n">
+        <v>846965.82533</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>104768.62247124</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>33220.2</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>111895</v>
+      </c>
+      <c r="AQ16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR16" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS16" t="n">
+        <v>1211118.59780124</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -8750,10 +9150,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -8768,13 +9168,13 @@
         <v>30</v>
       </c>
       <c r="H17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="I17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="J17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -8786,10 +9186,10 @@
         <v>2</v>
       </c>
       <c r="N17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="O17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -8800,20 +9200,20 @@
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,3,3,3,8</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>8306898.955763301</v>
+        <v>1019218.3916169</v>
       </c>
       <c r="U17" t="n">
-        <v>1459640.4519264</v>
+        <v>177500.9914496</v>
       </c>
       <c r="V17" t="n">
-        <v>1194853.9356</v>
+        <v>153045.3</v>
       </c>
       <c r="W17" t="n">
-        <v>4700</v>
+        <v>3020</v>
       </c>
       <c r="X17" t="n">
         <v>720</v>
@@ -8825,7 +9225,7 @@
         <v>2760</v>
       </c>
       <c r="AA17" t="n">
-        <v>5400</v>
+        <v>4140</v>
       </c>
       <c r="AB17" t="n">
         <v>1080</v>
@@ -8834,58 +9234,82 @@
         <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="AE17" t="n">
         <v>5000</v>
       </c>
       <c r="AF17" t="n">
-        <v>160</v>
+        <v>55</v>
       </c>
       <c r="AG17" t="n">
-        <v>150</v>
+        <v>45</v>
       </c>
       <c r="AH17" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI17" t="n">
         <v>0</v>
       </c>
       <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
+      <c r="AL17" t="n">
+        <v>1950884.74718</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>231368.46043914</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>155697.55</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>685692</v>
+      </c>
+      <c r="AQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR17" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS17" t="n">
+        <v>3137911.70761914</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C18" t="n">
-        <v>161</v>
+        <v>400</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="H18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="I18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -8897,106 +9321,130 @@
         <v>2</v>
       </c>
       <c r="N18" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="O18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
       </c>
       <c r="Q18" t="inlineStr"/>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>5,3,3,3,1,1,0,0,1</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>235332.8395043</v>
+        <v>5212291.3498026</v>
       </c>
       <c r="U18" t="n">
-        <v>41213.7102704</v>
+        <v>917075.4570015999</v>
       </c>
       <c r="V18" t="n">
-        <v>27656.1508</v>
+        <v>756529.6233000001</v>
       </c>
       <c r="W18" t="n">
-        <v>1580</v>
+        <v>3660</v>
       </c>
       <c r="X18" t="n">
-        <v>400</v>
+        <v>720</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>1200</v>
+        <v>2760</v>
       </c>
       <c r="AA18" t="n">
-        <v>2060</v>
+        <v>4620</v>
       </c>
       <c r="AB18" t="n">
-        <v>600</v>
+        <v>1080</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
       </c>
       <c r="AD18" t="n">
-        <v>256</v>
+        <v>400</v>
       </c>
       <c r="AE18" t="n">
         <v>5000</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>95</v>
       </c>
       <c r="AG18" t="n">
-        <v>5</v>
+        <v>85</v>
       </c>
       <c r="AH18" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="AI18" t="n">
         <v>0</v>
       </c>
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
+      <c r="AL18" t="n">
+        <v>11871577.485405</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>1431075.20168364</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>481003.7</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>2007622</v>
+      </c>
+      <c r="AQ18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR18" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS18" t="n">
+        <v>15905547.33708864</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>pvp</t>
+          <t>pve</t>
         </is>
       </c>
       <c r="B19" t="n">
+        <v>16</v>
+      </c>
+      <c r="C19" t="n">
+        <v>500</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
         <v>10</v>
-      </c>
-      <c r="C19" t="n">
-        <v>200</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>9</v>
       </c>
       <c r="F19" t="n">
         <v>5</v>
       </c>
       <c r="G19" t="n">
+        <v>30</v>
+      </c>
+      <c r="H19" t="n">
+        <v>160</v>
+      </c>
+      <c r="I19" t="n">
+        <v>150</v>
+      </c>
+      <c r="J19" t="n">
         <v>10</v>
-      </c>
-      <c r="H19" t="n">
-        <v>20</v>
-      </c>
-      <c r="I19" t="n">
-        <v>10</v>
-      </c>
-      <c r="J19" t="n">
-        <v>2</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -9008,34 +9456,34 @@
         <v>2</v>
       </c>
       <c r="N19" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="O19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
       </c>
       <c r="Q19" t="inlineStr"/>
       <c r="R19" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>5,3,3,3,2,2,0,0,2</t>
+          <t>5,3,3,3,4,5,5,5,10</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>310549.4206447999</v>
+        <v>8616616.955763301</v>
       </c>
       <c r="U19" t="n">
-        <v>54364.8029824</v>
+        <v>1513673.4519264</v>
       </c>
       <c r="V19" t="n">
-        <v>37423.6486</v>
+        <v>1244085.9356</v>
       </c>
       <c r="W19" t="n">
-        <v>2460</v>
+        <v>4700</v>
       </c>
       <c r="X19" t="n">
         <v>720</v>
@@ -9044,10 +9492,10 @@
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2360</v>
+        <v>2760</v>
       </c>
       <c r="AA19" t="n">
-        <v>3720</v>
+        <v>5400</v>
       </c>
       <c r="AB19" t="n">
         <v>1080</v>
@@ -9056,25 +9504,49 @@
         <v>0</v>
       </c>
       <c r="AD19" t="n">
-        <v>260</v>
+        <v>500</v>
       </c>
       <c r="AE19" t="n">
         <v>5000</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
       <c r="AG19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AH19" t="n">
         <v>10</v>
-      </c>
-      <c r="AH19" t="n">
-        <v>2</v>
       </c>
       <c r="AI19" t="n">
         <v>0</v>
       </c>
       <c r="AJ19" t="inlineStr"/>
       <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>19259273.49297</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>2326440.66078546</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>1061573.2</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>3470670.6</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>26232226.90375546</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -9083,31 +9555,31 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C20" t="n">
-        <v>240</v>
+        <v>161</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>15</v>
+      </c>
+      <c r="I20" t="n">
         <v>5</v>
       </c>
-      <c r="G20" t="n">
-        <v>20</v>
-      </c>
-      <c r="H20" t="n">
-        <v>25</v>
-      </c>
-      <c r="I20" t="n">
-        <v>15</v>
-      </c>
       <c r="J20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9119,73 +9591,97 @@
         <v>2</v>
       </c>
       <c r="N20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
       </c>
       <c r="Q20" t="inlineStr"/>
       <c r="R20" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>5,3,3,3,3,2,1,0,5</t>
+          <t>5,3,3,3,1,1,0,0,1</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>394305.7064068</v>
+        <v>224332.8395043</v>
       </c>
       <c r="U20" t="n">
-        <v>68774.7931888</v>
+        <v>39273.7102704</v>
       </c>
       <c r="V20" t="n">
-        <v>51385.269</v>
+        <v>26905.1508</v>
       </c>
       <c r="W20" t="n">
-        <v>2540</v>
+        <v>1080</v>
       </c>
       <c r="X20" t="n">
-        <v>720</v>
+        <v>300</v>
       </c>
       <c r="Y20" t="n">
         <v>15000</v>
       </c>
       <c r="Z20" t="n">
-        <v>2560</v>
+        <v>900</v>
       </c>
       <c r="AA20" t="n">
-        <v>3780</v>
+        <v>1560</v>
       </c>
       <c r="AB20" t="n">
-        <v>1080</v>
+        <v>450</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
       </c>
       <c r="AD20" t="n">
-        <v>264</v>
+        <v>256</v>
       </c>
       <c r="AE20" t="n">
         <v>5000</v>
       </c>
       <c r="AF20" t="n">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="AH20" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="AI20" t="n">
         <v>0</v>
       </c>
       <c r="AJ20" t="inlineStr"/>
       <c r="AK20" t="inlineStr"/>
+      <c r="AL20" t="n">
+        <v>572182.4471700001</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>32846</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>2473.41030006</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>14696.9</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>32982.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS20" t="n">
+        <v>655181.5574700601</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -9194,31 +9690,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C21" t="n">
-        <v>260</v>
+        <v>200</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F21" t="n">
         <v>5</v>
       </c>
       <c r="G21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="I21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="J21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9230,73 +9726,97 @@
         <v>2</v>
       </c>
       <c r="N21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="O21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,2,2,1,7</t>
+          <t>5,3,3,3,2,2,0,0,2</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>446795.4230873</v>
+        <v>287449.4206447999</v>
       </c>
       <c r="U21" t="n">
-        <v>81678.83201280001</v>
+        <v>50290.8029824</v>
       </c>
       <c r="V21" t="n">
-        <v>59228.8487</v>
+        <v>35846.8486</v>
       </c>
       <c r="W21" t="n">
-        <v>2700</v>
+        <v>1410</v>
       </c>
       <c r="X21" t="n">
-        <v>720</v>
+        <v>450</v>
       </c>
       <c r="Y21" t="n">
         <v>15000</v>
       </c>
       <c r="Z21" t="n">
-        <v>2760</v>
+        <v>1550</v>
       </c>
       <c r="AA21" t="n">
-        <v>3900</v>
+        <v>2370</v>
       </c>
       <c r="AB21" t="n">
-        <v>1080</v>
+        <v>675</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
       </c>
       <c r="AD21" t="n">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="AE21" t="n">
         <v>5000</v>
       </c>
       <c r="AF21" t="n">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="AG21" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="AH21" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AI21" t="n">
         <v>0</v>
       </c>
       <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
+      <c r="AL21" t="n">
+        <v>682449.15117</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>49269</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>31445.73950336</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>19028.1</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>65965.60000000001</v>
+      </c>
+      <c r="AQ21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>848157.5906733599</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -9305,10 +9825,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C22" t="n">
-        <v>300</v>
+        <v>240</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -9320,16 +9840,16 @@
         <v>5</v>
       </c>
       <c r="G22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="I22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="J22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -9341,34 +9861,34 @@
         <v>2</v>
       </c>
       <c r="N22" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="O22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
       </c>
       <c r="Q22" t="inlineStr"/>
       <c r="R22" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,3,3,3,8</t>
+          <t>5,3,3,3,3,2,1,0,5</t>
         </is>
       </c>
       <c r="T22" t="n">
-        <v>516253.94011</v>
+        <v>394305.7064068</v>
       </c>
       <c r="U22" t="n">
-        <v>98042.5645952</v>
+        <v>68774.7931888</v>
       </c>
       <c r="V22" t="n">
-        <v>72763.32250000001</v>
+        <v>51385.269</v>
       </c>
       <c r="W22" t="n">
-        <v>3020</v>
+        <v>2540</v>
       </c>
       <c r="X22" t="n">
         <v>720</v>
@@ -9377,10 +9897,10 @@
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2760</v>
+        <v>2560</v>
       </c>
       <c r="AA22" t="n">
-        <v>4140</v>
+        <v>3780</v>
       </c>
       <c r="AB22" t="n">
         <v>1080</v>
@@ -9389,25 +9909,49 @@
         <v>0</v>
       </c>
       <c r="AD22" t="n">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="AE22" t="n">
         <v>5000</v>
       </c>
       <c r="AF22" t="n">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="AG22" t="n">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="AH22" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="AI22" t="n">
         <v>0</v>
       </c>
       <c r="AJ22" t="inlineStr"/>
       <c r="AK22" t="inlineStr"/>
+      <c r="AL22" t="n">
+        <v>870799.0461400001</v>
+      </c>
+      <c r="AM22" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN22" t="n">
+        <v>73053.98001952001</v>
+      </c>
+      <c r="AO22" t="n">
+        <v>23382.7</v>
+      </c>
+      <c r="AP22" t="n">
+        <v>95470.39999999999</v>
+      </c>
+      <c r="AQ22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR22" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS22" t="n">
+        <v>1176975.07615952</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -9416,10 +9960,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C23" t="n">
-        <v>400</v>
+        <v>260</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -9434,13 +9978,13 @@
         <v>30</v>
       </c>
       <c r="H23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="I23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="J23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9452,10 +9996,10 @@
         <v>2</v>
       </c>
       <c r="N23" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="O23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9466,20 +10010,20 @@
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>5,3,3,3,4,5,5,5,10</t>
+          <t>5,3,3,3,4,2,2,1,7</t>
         </is>
       </c>
       <c r="T23" t="n">
-        <v>657834.3028077</v>
+        <v>446795.4230873</v>
       </c>
       <c r="U23" t="n">
-        <v>131622.6341792</v>
+        <v>81678.83201280001</v>
       </c>
       <c r="V23" t="n">
-        <v>100153.7449</v>
+        <v>59228.8487</v>
       </c>
       <c r="W23" t="n">
-        <v>3660</v>
+        <v>2700</v>
       </c>
       <c r="X23" t="n">
         <v>720</v>
@@ -9491,7 +10035,7 @@
         <v>2760</v>
       </c>
       <c r="AA23" t="n">
-        <v>4620</v>
+        <v>3900</v>
       </c>
       <c r="AB23" t="n">
         <v>1080</v>
@@ -9500,25 +10044,319 @@
         <v>0</v>
       </c>
       <c r="AD23" t="n">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="AE23" t="n">
         <v>5000</v>
       </c>
       <c r="AF23" t="n">
-        <v>95</v>
+        <v>35</v>
       </c>
       <c r="AG23" t="n">
-        <v>85</v>
+        <v>25</v>
       </c>
       <c r="AH23" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AI23" t="n">
         <v>0</v>
       </c>
       <c r="AJ23" t="inlineStr"/>
       <c r="AK23" t="inlineStr"/>
+      <c r="AL23" t="n">
+        <v>952241.681965</v>
+      </c>
+      <c r="AM23" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN23" t="n">
+        <v>116940.96203562</v>
+      </c>
+      <c r="AO23" t="n">
+        <v>30363.65</v>
+      </c>
+      <c r="AP23" t="n">
+        <v>150324</v>
+      </c>
+      <c r="AQ23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR23" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS23" t="n">
+        <v>1364139.24400062</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>15</v>
+      </c>
+      <c r="C24" t="n">
+        <v>300</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>10</v>
+      </c>
+      <c r="F24" t="n">
+        <v>5</v>
+      </c>
+      <c r="G24" t="n">
+        <v>30</v>
+      </c>
+      <c r="H24" t="n">
+        <v>55</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45</v>
+      </c>
+      <c r="J24" t="n">
+        <v>8</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>62</v>
+      </c>
+      <c r="M24" t="n">
+        <v>2</v>
+      </c>
+      <c r="N24" t="n">
+        <v>15</v>
+      </c>
+      <c r="O24" t="n">
+        <v>270</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="inlineStr"/>
+      <c r="R24" t="n">
+        <v>30</v>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,3,3,3,8</t>
+        </is>
+      </c>
+      <c r="T24" t="n">
+        <v>516253.94011</v>
+      </c>
+      <c r="U24" t="n">
+        <v>98042.5645952</v>
+      </c>
+      <c r="V24" t="n">
+        <v>72763.32250000001</v>
+      </c>
+      <c r="W24" t="n">
+        <v>3020</v>
+      </c>
+      <c r="X24" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z24" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA24" t="n">
+        <v>4140</v>
+      </c>
+      <c r="AB24" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD24" t="n">
+        <v>270</v>
+      </c>
+      <c r="AE24" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF24" t="n">
+        <v>55</v>
+      </c>
+      <c r="AG24" t="n">
+        <v>45</v>
+      </c>
+      <c r="AH24" t="n">
+        <v>8</v>
+      </c>
+      <c r="AI24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr"/>
+      <c r="AK24" t="inlineStr"/>
+      <c r="AL24" t="n">
+        <v>1080544.020935</v>
+      </c>
+      <c r="AM24" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN24" t="n">
+        <v>131365.51925688</v>
+      </c>
+      <c r="AO24" t="n">
+        <v>43173.05</v>
+      </c>
+      <c r="AP24" t="n">
+        <v>255711.2</v>
+      </c>
+      <c r="AQ24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR24" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS24" t="n">
+        <v>1625062.74019188</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>pvp</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>16</v>
+      </c>
+      <c r="C25" t="n">
+        <v>400</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>10</v>
+      </c>
+      <c r="F25" t="n">
+        <v>5</v>
+      </c>
+      <c r="G25" t="n">
+        <v>30</v>
+      </c>
+      <c r="H25" t="n">
+        <v>95</v>
+      </c>
+      <c r="I25" t="n">
+        <v>85</v>
+      </c>
+      <c r="J25" t="n">
+        <v>10</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>62</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="n">
+        <v>16</v>
+      </c>
+      <c r="O25" t="n">
+        <v>280</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="inlineStr"/>
+      <c r="R25" t="n">
+        <v>30</v>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>5,3,3,3,4,5,5,5,10</t>
+        </is>
+      </c>
+      <c r="T25" t="n">
+        <v>657834.3028077</v>
+      </c>
+      <c r="U25" t="n">
+        <v>131622.6341792</v>
+      </c>
+      <c r="V25" t="n">
+        <v>100153.7449</v>
+      </c>
+      <c r="W25" t="n">
+        <v>3660</v>
+      </c>
+      <c r="X25" t="n">
+        <v>720</v>
+      </c>
+      <c r="Y25" t="n">
+        <v>15000</v>
+      </c>
+      <c r="Z25" t="n">
+        <v>2760</v>
+      </c>
+      <c r="AA25" t="n">
+        <v>4620</v>
+      </c>
+      <c r="AB25" t="n">
+        <v>1080</v>
+      </c>
+      <c r="AC25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD25" t="n">
+        <v>280</v>
+      </c>
+      <c r="AE25" t="n">
+        <v>5000</v>
+      </c>
+      <c r="AF25" t="n">
+        <v>95</v>
+      </c>
+      <c r="AG25" t="n">
+        <v>85</v>
+      </c>
+      <c r="AH25" t="n">
+        <v>10</v>
+      </c>
+      <c r="AI25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr"/>
+      <c r="AK25" t="inlineStr"/>
+      <c r="AL25" t="n">
+        <v>1346174.777585</v>
+      </c>
+      <c r="AM25" t="n">
+        <v>114268.95</v>
+      </c>
+      <c r="AN25" t="n">
+        <v>161614.73423418</v>
+      </c>
+      <c r="AO25" t="n">
+        <v>68760.45</v>
+      </c>
+      <c r="AP25" t="n">
+        <v>466485.6</v>
+      </c>
+      <c r="AQ25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR25" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS25" t="n">
+        <v>2157304.51181918</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/opm_hero_property/heroes/62.xlsx
+++ b/opm_hero_property/heroes/62.xlsx
@@ -997,87 +997,87 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,52016;31,14747;41,3958</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,44242;41,0</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6360;31,1766;41,567</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,5298;41,0</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N2" t="n">
-        <v>1</v>
+        <v>52016.37</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>14747.355</v>
       </c>
       <c r="P2" t="n">
-        <v>1</v>
+        <v>3958.6515</v>
       </c>
       <c r="Q2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>1</v>
+        <v>44242.065</v>
       </c>
       <c r="S2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>1</v>
+        <v>6360.144</v>
       </c>
       <c r="X2" t="n">
-        <v>1</v>
+        <v>1766.079</v>
       </c>
       <c r="Y2" t="n">
-        <v>1</v>
+        <v>567.0819</v>
       </c>
       <c r="Z2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>1</v>
+        <v>5298.237</v>
       </c>
       <c r="AB2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -1104,87 +1104,87 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,52021;31,14749;41,3959</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,44248;41,0</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6365;31,1768;41,567</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,5304;41,0</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N3" t="n">
-        <v>1</v>
+        <v>52021.95600000001</v>
       </c>
       <c r="O3" t="n">
-        <v>1</v>
+        <v>14749.497</v>
       </c>
       <c r="P3" t="n">
-        <v>1</v>
+        <v>3959.3529</v>
       </c>
       <c r="Q3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1</v>
+        <v>44248.491</v>
       </c>
       <c r="S3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>1</v>
+        <v>6365.73</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>1768.221</v>
       </c>
       <c r="Y3" t="n">
-        <v>1</v>
+        <v>567.7832999999999</v>
       </c>
       <c r="Z3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>1</v>
+        <v>5304.663</v>
       </c>
       <c r="AB3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -1211,87 +1211,87 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,56012;31,16231;41,4632</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,48695;41,0</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,6795;31,1927;41,642</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,5783;41,0</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N4" t="n">
-        <v>1</v>
+        <v>56012.868072</v>
       </c>
       <c r="O4" t="n">
-        <v>1</v>
+        <v>16231.9768821</v>
       </c>
       <c r="P4" t="n">
-        <v>1</v>
+        <v>4632.334451549999</v>
       </c>
       <c r="Q4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>1</v>
+        <v>48695.9306463</v>
       </c>
       <c r="S4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>1</v>
+        <v>6795.456444</v>
       </c>
       <c r="X4" t="n">
-        <v>1</v>
+        <v>1927.9088577</v>
       </c>
       <c r="Y4" t="n">
-        <v>1</v>
+        <v>642.15281715</v>
       </c>
       <c r="Z4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>1</v>
+        <v>5783.726573100001</v>
       </c>
       <c r="AB4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -1318,87 +1318,87 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,60535;31,17913;41,5395</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,53740;41,0</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,7281;31,2108;41,726</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,6326;41,0</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>21,1;31,1;41,1</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N5" t="n">
-        <v>1</v>
+        <v>60535.1569536</v>
       </c>
       <c r="O5" t="n">
-        <v>1</v>
+        <v>17913.4815825</v>
       </c>
       <c r="P5" t="n">
-        <v>1</v>
+        <v>5395.20728682</v>
       </c>
       <c r="Q5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1</v>
+        <v>53740.4447475</v>
       </c>
       <c r="S5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>1</v>
+        <v>7281.734947200001</v>
       </c>
       <c r="X5" t="n">
-        <v>1</v>
+        <v>2108.7780525</v>
       </c>
       <c r="Y5" t="n">
-        <v>1</v>
+        <v>726.3725754599999</v>
       </c>
       <c r="Z5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1</v>
+        <v>6326.334157499999</v>
       </c>
       <c r="AB5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1425,87 +1425,87 @@
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>21,54874;31,11050;41,4396</t>
+          <t>21,65849;31,19890;41,6292</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>21,54874;31,11050;41,4396</t>
+          <t>21,0;31,59670;41,0</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>21,27437;31,5525;41,2198</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>21,6544;31,1289;41,576</t>
+          <t>21,7852;31,2321;41,825</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>21,6544;31,1289;41,576</t>
+          <t>21,0;31,6963;41,0</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>21,3272;31,644;41,288</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>54874</v>
+        <v>65849.98965720001</v>
       </c>
       <c r="O6" t="n">
-        <v>11050</v>
+        <v>19890.1436706</v>
       </c>
       <c r="P6" t="n">
-        <v>4396</v>
+        <v>6292.5862524</v>
       </c>
       <c r="Q6" t="n">
-        <v>54874</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>11050</v>
+        <v>59670.4310118</v>
       </c>
       <c r="S6" t="n">
-        <v>4396</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27437</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>5525</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>2198</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>6544</v>
+        <v>7852.885769400001</v>
       </c>
       <c r="X6" t="n">
-        <v>1289</v>
+        <v>2321.2847322</v>
       </c>
       <c r="Y6" t="n">
-        <v>576</v>
+        <v>825.3760572</v>
       </c>
       <c r="Z6" t="n">
-        <v>6544</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1289</v>
+        <v>6963.8541966</v>
       </c>
       <c r="AB6" t="n">
-        <v>576</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>3272</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="AE6" t="n">
-        <v>288</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1532,87 +1532,87 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>21,62061;31,12314;41,5705</t>
+          <t>21,74474;31,22166;41,8167</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>21,62061;31,12314;41,5705</t>
+          <t>21,0;31,66499;41,0</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>21,31030;31,6157;41,2852</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>21,7323;31,1427;41,722</t>
+          <t>21,8788;31,2568;41,1033</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>21,7323;31,1427;41,722</t>
+          <t>21,0;31,7706;41,0</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>21,3661;31,713;41,361</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N7" t="n">
-        <v>62061</v>
+        <v>74474.28245880001</v>
       </c>
       <c r="O7" t="n">
-        <v>12314</v>
+        <v>22166.5658823</v>
       </c>
       <c r="P7" t="n">
-        <v>5705</v>
+        <v>8167.03091391</v>
       </c>
       <c r="Q7" t="n">
-        <v>62061</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>12314</v>
+        <v>66499.69764689999</v>
       </c>
       <c r="S7" t="n">
-        <v>5705</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>31030</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>6157</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>2852</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>7323</v>
+        <v>8788.670112600001</v>
       </c>
       <c r="X7" t="n">
-        <v>1427</v>
+        <v>2568.7335051</v>
       </c>
       <c r="Y7" t="n">
-        <v>722</v>
+        <v>1033.54257423</v>
       </c>
       <c r="Z7" t="n">
-        <v>7323</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1427</v>
+        <v>7706.200515300001</v>
       </c>
       <c r="AB7" t="n">
-        <v>722</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>3661</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>713</v>
+        <v>0</v>
       </c>
       <c r="AE7" t="n">
-        <v>361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1639,87 +1639,87 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>21,71348;31,13743;41,7516</t>
+          <t>21,85618;31,24738;41,10759</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>21,71348;31,13743;41,7516</t>
+          <t>21,0;31,74215;41,0</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>21,35674;31,6871;41,3758</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>21,8327;31,1581;41,922</t>
+          <t>21,9993;31,2846;41,1320</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>21,8327;31,1581;41,922</t>
+          <t>21,0;31,8540;41,0</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>21,4163;31,790;41,461</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N8" t="n">
-        <v>71348</v>
+        <v>85618.13571360002</v>
       </c>
       <c r="O8" t="n">
-        <v>13743</v>
+        <v>24738.4642176</v>
       </c>
       <c r="P8" t="n">
-        <v>7516</v>
+        <v>10759.5331641</v>
       </c>
       <c r="Q8" t="n">
-        <v>71348</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>13743</v>
+        <v>74215.3926528</v>
       </c>
       <c r="S8" t="n">
-        <v>7516</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>35674</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>6871</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>3758</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>8327</v>
+        <v>9993.1629672</v>
       </c>
       <c r="X8" t="n">
-        <v>1581</v>
+        <v>2846.8403712</v>
       </c>
       <c r="Y8" t="n">
-        <v>922</v>
+        <v>1320.7949673</v>
       </c>
       <c r="Z8" t="n">
-        <v>8327</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1581</v>
+        <v>8540.5211136</v>
       </c>
       <c r="AB8" t="n">
-        <v>922</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>4163</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>790</v>
+        <v>0</v>
       </c>
       <c r="AE8" t="n">
-        <v>461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1746,87 +1746,87 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>21,83287;31,15391;41,9954</t>
+          <t>21,99944;31,27704;41,14248</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>21,83287;31,15391;41,9954</t>
+          <t>21,0;31,83113;41,0</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>21,41643;31,7695;41,4977</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>21,9613;31,1758;41,1192</t>
+          <t>21,11536;31,3165;41,1706</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>21,9613;31,1758;41,1192</t>
+          <t>21,0;31,9497;41,0</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>21,4806;31,879;41,596</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N9" t="n">
-        <v>83287</v>
+        <v>99944.80443360002</v>
       </c>
       <c r="O9" t="n">
-        <v>15391</v>
+        <v>27704.4987177</v>
       </c>
       <c r="P9" t="n">
-        <v>9954</v>
+        <v>14248.5324846</v>
       </c>
       <c r="Q9" t="n">
-        <v>83287</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>15391</v>
+        <v>83113.4961531</v>
       </c>
       <c r="S9" t="n">
-        <v>9954</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>41643</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>7695</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>4977</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>9613</v>
+        <v>11536.0884072</v>
       </c>
       <c r="X9" t="n">
-        <v>1758</v>
+        <v>3165.9926949</v>
       </c>
       <c r="Y9" t="n">
-        <v>1192</v>
+        <v>1706.5081038</v>
       </c>
       <c r="Z9" t="n">
-        <v>9613</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1758</v>
+        <v>9497.9780847</v>
       </c>
       <c r="AB9" t="n">
-        <v>1192</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>4806</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="AE9" t="n">
-        <v>596</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1853,87 +1853,87 @@
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>21,92237;31,16270;41,11984</t>
+          <t>21,110684;31,29287;41,17154</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>21,92237;31,16270;41,11984</t>
+          <t>21,0;31,87861;41,0</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>21,46118;31,8135;41,5992</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>21,10577;31,1853;41,1416</t>
+          <t>21,12692;31,3336;41,2027</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>21,10577;31,1853;41,1416</t>
+          <t>21,0;31,10008;41,0</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>21,5288;31,926;41,708</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>92237</v>
+        <v>110684.7070812</v>
       </c>
       <c r="O10" t="n">
-        <v>16270</v>
+        <v>29287.0283769</v>
       </c>
       <c r="P10" t="n">
-        <v>11984</v>
+        <v>17154.49163727</v>
       </c>
       <c r="Q10" t="n">
-        <v>92237</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>16270</v>
+        <v>87861.0851307</v>
       </c>
       <c r="S10" t="n">
-        <v>11984</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>46118</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>8135</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>5992</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>10577</v>
+        <v>12692.7492174</v>
       </c>
       <c r="X10" t="n">
-        <v>1853</v>
+        <v>3336.1595253</v>
       </c>
       <c r="Y10" t="n">
-        <v>1416</v>
+        <v>2027.75206431</v>
       </c>
       <c r="Z10" t="n">
-        <v>10577</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1853</v>
+        <v>10008.4785759</v>
       </c>
       <c r="AB10" t="n">
-        <v>1416</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>5288</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>926</v>
+        <v>0</v>
       </c>
       <c r="AE10" t="n">
-        <v>708</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1960,87 +1960,87 @@
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>21,103155;31,17313;41,14476</t>
+          <t>21,123786;31,31164;41,20721</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>21,103155;31,17313;41,14476</t>
+          <t>21,0;31,93493;41,0</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>21,51577;31,8656;41,7238</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>21,11751;31,1965;41,1691</t>
+          <t>21,14101;31,3537;41,2421</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>21,11751;31,1965;41,1691</t>
+          <t>21,0;31,10613;41,0</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>21,5875;31,982;41,845</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>103155</v>
+        <v>123786.4510176</v>
       </c>
       <c r="O11" t="n">
-        <v>17313</v>
+        <v>31164.4634238</v>
       </c>
       <c r="P11" t="n">
-        <v>14476</v>
+        <v>20721.65478339</v>
       </c>
       <c r="Q11" t="n">
-        <v>103155</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>17313</v>
+        <v>93493.3902714</v>
       </c>
       <c r="S11" t="n">
-        <v>14476</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>51577</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>8656</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>7238</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>11751</v>
+        <v>14101.9336752</v>
       </c>
       <c r="X11" t="n">
-        <v>1965</v>
+        <v>3537.7118406</v>
       </c>
       <c r="Y11" t="n">
-        <v>1691</v>
+        <v>2421.76269267</v>
       </c>
       <c r="Z11" t="n">
-        <v>11751</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1965</v>
+        <v>10613.1355218</v>
       </c>
       <c r="AB11" t="n">
-        <v>1691</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>5875</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>982</v>
+        <v>0</v>
       </c>
       <c r="AE11" t="n">
-        <v>845</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2067,87 +2067,87 @@
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>21,123266;31,19510;41,18911</t>
+          <t>21,147919;31,35118;41,27070</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>21,123266;31,19510;41,18911</t>
+          <t>21,0;31,105355;41,0</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>21,61633;31,9755;41,9455</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>21,13911;31,2201;41,2181</t>
+          <t>21,16694;31,3961;41,3122</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>21,13911;31,2201;41,2181</t>
+          <t>21,0;31,11885;41,0</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>21,6955;31,1100;41,1090</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>123266</v>
+        <v>147919.3183608</v>
       </c>
       <c r="O12" t="n">
-        <v>19510</v>
+        <v>35118.3583359</v>
       </c>
       <c r="P12" t="n">
-        <v>18911</v>
+        <v>27070.1145147</v>
       </c>
       <c r="Q12" t="n">
-        <v>123266</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>19510</v>
+        <v>105355.0750077</v>
       </c>
       <c r="S12" t="n">
-        <v>18911</v>
+        <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>61633</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>9755</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
-        <v>9455</v>
+        <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>13911</v>
+        <v>16694.1935916</v>
       </c>
       <c r="X12" t="n">
-        <v>2201</v>
+        <v>3961.9978083</v>
       </c>
       <c r="Y12" t="n">
-        <v>2181</v>
+        <v>3122.2415691</v>
       </c>
       <c r="Z12" t="n">
-        <v>13911</v>
+        <v>0</v>
       </c>
       <c r="AA12" t="n">
-        <v>2201</v>
+        <v>11885.9934249</v>
       </c>
       <c r="AB12" t="n">
-        <v>2181</v>
+        <v>0</v>
       </c>
       <c r="AC12" t="n">
-        <v>6955</v>
+        <v>0</v>
       </c>
       <c r="AD12" t="n">
-        <v>1100</v>
+        <v>0</v>
       </c>
       <c r="AE12" t="n">
-        <v>1090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2174,87 +2174,87 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>21,126380;31,19951;41,19539</t>
+          <t>21,151656;31,35912;41,27969</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>21,126380;31,19951;41,19539</t>
+          <t>21,0;31,107737;41,0</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>21,63190;31,9975;41,9769</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>21,14256;31,2250;41,2252</t>
+          <t>21,17107;31,4050;41,3223</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>21,14256;31,2250;41,2252</t>
+          <t>21,0;31,12150;41,0</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>21,7128;31,1125;41,1126</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>126380</v>
+        <v>151656.764028</v>
       </c>
       <c r="O13" t="n">
-        <v>19951</v>
+        <v>35912.5526655</v>
       </c>
       <c r="P13" t="n">
-        <v>19539</v>
+        <v>27969.89828028</v>
       </c>
       <c r="Q13" t="n">
-        <v>126380</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>19951</v>
+        <v>107737.6579965</v>
       </c>
       <c r="S13" t="n">
-        <v>19539</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>63190</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>9975</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>9769</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>14256</v>
+        <v>17107.866006</v>
       </c>
       <c r="X13" t="n">
-        <v>2250</v>
+        <v>4050.0107235</v>
       </c>
       <c r="Y13" t="n">
-        <v>2252</v>
+        <v>3223.64985084</v>
       </c>
       <c r="Z13" t="n">
-        <v>14256</v>
+        <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>2250</v>
+        <v>12150.0321705</v>
       </c>
       <c r="AB13" t="n">
-        <v>2252</v>
+        <v>0</v>
       </c>
       <c r="AC13" t="n">
-        <v>7128</v>
+        <v>0</v>
       </c>
       <c r="AD13" t="n">
-        <v>1125</v>
+        <v>0</v>
       </c>
       <c r="AE13" t="n">
-        <v>1126</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2281,87 +2281,87 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>21,129490;31,20391;41,20168</t>
+          <t>21,155389;31,36705;41,28869</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>21,129490;31,20391;41,20168</t>
+          <t>21,0;31,110115;41,0</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>21,64745;31,10195;41,10084</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>21,14600;31,2298;41,2322</t>
+          <t>21,17521;31,4137;41,3325</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>21,14600;31,2298;41,2322</t>
+          <t>21,0;31,12413;41,0</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>21,7300;31,1149;41,1161</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>129490</v>
+        <v>155389.1423028</v>
       </c>
       <c r="O14" t="n">
-        <v>20391</v>
+        <v>36705.2942592</v>
       </c>
       <c r="P14" t="n">
-        <v>20168</v>
+        <v>28869.30115059</v>
       </c>
       <c r="Q14" t="n">
-        <v>129490</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>20391</v>
+        <v>110115.8827776</v>
       </c>
       <c r="S14" t="n">
-        <v>20168</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>64745</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>10195</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>10084</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>14600</v>
+        <v>17521.0366506</v>
       </c>
       <c r="X14" t="n">
-        <v>2298</v>
+        <v>4137.8690304</v>
       </c>
       <c r="Y14" t="n">
-        <v>2322</v>
+        <v>3325.016394270001</v>
       </c>
       <c r="Z14" t="n">
-        <v>14600</v>
+        <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>2298</v>
+        <v>12413.6070912</v>
       </c>
       <c r="AB14" t="n">
-        <v>2322</v>
+        <v>0</v>
       </c>
       <c r="AC14" t="n">
-        <v>7300</v>
+        <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>1149</v>
+        <v>0</v>
       </c>
       <c r="AE14" t="n">
-        <v>1161</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2388,87 +2388,87 @@
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>21,132605;31,20833;41,20796</t>
+          <t>21,159126;31,37499;41,29769</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>21,132605;31,20833;41,20796</t>
+          <t>21,0;31,112498;41,0</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>21,66302;31,10416;41,10398</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>21,14945;31,2347;41,2393</t>
+          <t>21,17934;31,4225;41,3426</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>21,14945;31,2347;41,2393</t>
+          <t>21,0;31,12677;41,0</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>21,7472;31,1173;41,1196</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>132605</v>
+        <v>159126.62997</v>
       </c>
       <c r="O15" t="n">
-        <v>20833</v>
+        <v>37499.4885888</v>
       </c>
       <c r="P15" t="n">
-        <v>20796</v>
+        <v>29769.13501617</v>
       </c>
       <c r="Q15" t="n">
-        <v>132605</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>20833</v>
+        <v>112498.4657664</v>
       </c>
       <c r="S15" t="n">
-        <v>20796</v>
+        <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>66302</v>
+        <v>0</v>
       </c>
       <c r="U15" t="n">
-        <v>10416</v>
+        <v>0</v>
       </c>
       <c r="V15" t="n">
-        <v>10398</v>
+        <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>14945</v>
+        <v>17934.751065</v>
       </c>
       <c r="X15" t="n">
-        <v>2347</v>
+        <v>4225.881945599999</v>
       </c>
       <c r="Y15" t="n">
-        <v>2393</v>
+        <v>3426.47477601</v>
       </c>
       <c r="Z15" t="n">
-        <v>14945</v>
+        <v>0</v>
       </c>
       <c r="AA15" t="n">
-        <v>2347</v>
+        <v>12677.6458368</v>
       </c>
       <c r="AB15" t="n">
-        <v>2393</v>
+        <v>0</v>
       </c>
       <c r="AC15" t="n">
-        <v>7472</v>
+        <v>0</v>
       </c>
       <c r="AD15" t="n">
-        <v>1173</v>
+        <v>0</v>
       </c>
       <c r="AE15" t="n">
-        <v>1196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2495,87 +2495,87 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>21,135720;31,21274;41,21425</t>
+          <t>21,162864;31,38293;41,30668</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>21,135720;31,21274;41,21425</t>
+          <t>21,0;31,114881;41,0</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>21,67860;31,10637;41,10712</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>21,15290;31,2396;41,2464</t>
+          <t>21,18348;31,4313;41,3527</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>21,15290;31,2396;41,2464</t>
+          <t>21,0;31,12941;41,0</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>21,7645;31,1198;41,1232</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>135720</v>
+        <v>162864.1176372</v>
       </c>
       <c r="O16" t="n">
-        <v>21274</v>
+        <v>38293.68291839999</v>
       </c>
       <c r="P16" t="n">
-        <v>21425</v>
+        <v>30668.91878175</v>
       </c>
       <c r="Q16" t="n">
-        <v>135720</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21274</v>
+        <v>114881.0487552</v>
       </c>
       <c r="S16" t="n">
-        <v>21425</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>67860</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>10637</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>10712</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>15290</v>
+        <v>18348.4654794</v>
       </c>
       <c r="X16" t="n">
-        <v>2396</v>
+        <v>4313.8948608</v>
       </c>
       <c r="Y16" t="n">
-        <v>2464</v>
+        <v>3527.88305775</v>
       </c>
       <c r="Z16" t="n">
-        <v>15290</v>
+        <v>0</v>
       </c>
       <c r="AA16" t="n">
-        <v>2396</v>
+        <v>12941.6845824</v>
       </c>
       <c r="AB16" t="n">
-        <v>2464</v>
+        <v>0</v>
       </c>
       <c r="AC16" t="n">
-        <v>7645</v>
+        <v>0</v>
       </c>
       <c r="AD16" t="n">
-        <v>1198</v>
+        <v>0</v>
       </c>
       <c r="AE16" t="n">
-        <v>1232</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2602,87 +2602,87 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>21,138834;31,21714;41,22053</t>
+          <t>21,166601;31,39086;41,31568</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>21,138834;31,21714;41,22053</t>
+          <t>21,0;31,117259;41,0</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>21,69417;31,10857;41,11026</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>21,15635;31,2445;41,2535</t>
+          <t>21,18762;31,4401;41,3629</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>21,15635;31,2445;41,2535</t>
+          <t>21,0;31,13205;41,0</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>21,7817;31,1222;41,1267</t>
+          <t>21,0;31,0;41,0</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>138834</v>
+        <v>166601.5633044</v>
       </c>
       <c r="O17" t="n">
-        <v>21714</v>
+        <v>39086.4245121</v>
       </c>
       <c r="P17" t="n">
-        <v>22053</v>
+        <v>31568.70254733</v>
       </c>
       <c r="Q17" t="n">
-        <v>138834</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>21714</v>
+        <v>117259.2735363</v>
       </c>
       <c r="S17" t="n">
-        <v>22053</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>69417</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>10857</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>11026</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>15635</v>
+        <v>18762.1378938</v>
       </c>
       <c r="X17" t="n">
-        <v>2445</v>
+        <v>4401.7531677</v>
       </c>
       <c r="Y17" t="n">
-        <v>2535</v>
+        <v>3629.29133949</v>
       </c>
       <c r="Z17" t="n">
-        <v>15635</v>
+        <v>0</v>
       </c>
       <c r="AA17" t="n">
-        <v>2445</v>
+        <v>13205.2595031</v>
       </c>
       <c r="AB17" t="n">
-        <v>2535</v>
+        <v>0</v>
       </c>
       <c r="AC17" t="n">
-        <v>7817</v>
+        <v>0</v>
       </c>
       <c r="AD17" t="n">
-        <v>1222</v>
+        <v>0</v>
       </c>
       <c r="AE17" t="n">
-        <v>1267</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -5447,141 +5447,141 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>8018</v>
+        <v>9329</v>
       </c>
       <c r="C2" t="n">
-        <v>1409</v>
+        <v>2188</v>
       </c>
       <c r="D2" t="n">
-        <v>911</v>
+        <v>1770</v>
       </c>
       <c r="E2" t="n">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F2" t="n">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="G2" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="H2" t="n">
-        <v>8018</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>1409</v>
+        <v>3145</v>
       </c>
       <c r="J2" t="n">
-        <v>911</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>40</v>
+        <v>216</v>
       </c>
       <c r="M2" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4009</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>704</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>455</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>5003</v>
+        <v>4698</v>
       </c>
       <c r="U2" t="n">
-        <v>874</v>
+        <v>1230</v>
       </c>
       <c r="V2" t="n">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="W2" t="n">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="X2" t="n">
-        <v>35</v>
+        <v>63</v>
       </c>
       <c r="Y2" t="n">
-        <v>35</v>
+        <v>50</v>
       </c>
       <c r="Z2" t="n">
-        <v>5003</v>
+        <v>0</v>
       </c>
       <c r="AA2" t="n">
-        <v>874</v>
+        <v>1767</v>
       </c>
       <c r="AB2" t="n">
-        <v>727</v>
+        <v>0</v>
       </c>
       <c r="AC2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AD2" t="n">
-        <v>35</v>
+        <v>189</v>
       </c>
       <c r="AE2" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
-        <v>2501</v>
+        <v>0</v>
       </c>
       <c r="AG2" t="n">
-        <v>437</v>
+        <v>0</v>
       </c>
       <c r="AH2" t="n">
-        <v>363</v>
+        <v>0</v>
       </c>
       <c r="AI2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AJ2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AK2" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AL2" t="inlineStr">
         <is>
-          <t>21,8018;31,1409;41,911;22,40;32,40;42,40</t>
+          <t>21,9329;31,2188;41,1770;22,48;32,72;42,57</t>
         </is>
       </c>
       <c r="AM2" t="inlineStr">
         <is>
-          <t>21,8018;31,1409;41,911;22,40;32,40;42,40</t>
+          <t>21,0;31,3145;41,0;22,0;32,216;42,0</t>
         </is>
       </c>
       <c r="AN2" t="inlineStr">
         <is>
-          <t>21,4009;31,704;41,455;22,20;32,20;42,20</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,4698;31,1230;41,697;22,42;32,63;42,50</t>
         </is>
       </c>
       <c r="AP2" t="inlineStr">
         <is>
-          <t>21,5003;31,874;41,727;22,35;32,35;42,35</t>
+          <t>21,0;31,1767;41,0;22,0;32,189;42,0</t>
         </is>
       </c>
       <c r="AQ2" t="inlineStr">
         <is>
-          <t>21,2501;31,437;41,363;22,17;32,17;42,17</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5590,141 +5590,141 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>16211</v>
+        <v>18659</v>
       </c>
       <c r="C3" t="n">
-        <v>2704</v>
+        <v>4377</v>
       </c>
       <c r="D3" t="n">
-        <v>1962</v>
+        <v>3540</v>
       </c>
       <c r="E3" t="n">
-        <v>80</v>
+        <v>96</v>
       </c>
       <c r="F3" t="n">
-        <v>80</v>
+        <v>144</v>
       </c>
       <c r="G3" t="n">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="H3" t="n">
-        <v>16211</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2704</v>
+        <v>6291</v>
       </c>
       <c r="J3" t="n">
-        <v>1962</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>80</v>
+        <v>432</v>
       </c>
       <c r="M3" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>8105</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>1352</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>981</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>5241</v>
+        <v>5442</v>
       </c>
       <c r="U3" t="n">
-        <v>915</v>
+        <v>1362</v>
       </c>
       <c r="V3" t="n">
-        <v>768</v>
+        <v>871</v>
       </c>
       <c r="W3" t="n">
-        <v>70</v>
+        <v>84</v>
       </c>
       <c r="X3" t="n">
-        <v>70</v>
+        <v>126</v>
       </c>
       <c r="Y3" t="n">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Z3" t="n">
-        <v>5241</v>
+        <v>0</v>
       </c>
       <c r="AA3" t="n">
-        <v>915</v>
+        <v>1958</v>
       </c>
       <c r="AB3" t="n">
-        <v>768</v>
+        <v>0</v>
       </c>
       <c r="AC3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AD3" t="n">
-        <v>70</v>
+        <v>378</v>
       </c>
       <c r="AE3" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>2620</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="AH3" t="n">
-        <v>384</v>
+        <v>0</v>
       </c>
       <c r="AI3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AJ3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AK3" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="AL3" t="inlineStr">
         <is>
-          <t>21,16211;31,2704;41,1962;22,80;32,80;42,80</t>
+          <t>21,18659;31,4377;41,3540;22,96;32,144;42,114</t>
         </is>
       </c>
       <c r="AM3" t="inlineStr">
         <is>
-          <t>21,16211;31,2704;41,1962;22,80;32,80;42,80</t>
+          <t>21,0;31,6291;41,0;22,0;32,432;42,0</t>
         </is>
       </c>
       <c r="AN3" t="inlineStr">
         <is>
-          <t>21,8105;31,1352;41,981;22,40;32,40;42,40</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,5442;31,1362;41,871;22,84;32,126;42,100</t>
         </is>
       </c>
       <c r="AP3" t="inlineStr">
         <is>
-          <t>21,5241;31,915;41,768;22,70;32,70;42,70</t>
+          <t>21,0;31,1958;41,0;22,0;32,378;42,0</t>
         </is>
       </c>
       <c r="AQ3" t="inlineStr">
         <is>
-          <t>21,2620;31,457;41,384;22,35;32,35;42,35</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5733,141 +5733,141 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>24384</v>
+        <v>27988</v>
       </c>
       <c r="C4" t="n">
-        <v>3858</v>
+        <v>6566</v>
       </c>
       <c r="D4" t="n">
-        <v>3205</v>
+        <v>5310</v>
       </c>
       <c r="E4" t="n">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F4" t="n">
-        <v>120</v>
+        <v>216</v>
       </c>
       <c r="G4" t="n">
-        <v>120</v>
+        <v>172</v>
       </c>
       <c r="H4" t="n">
-        <v>24384</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>3858</v>
+        <v>9437</v>
       </c>
       <c r="J4" t="n">
-        <v>3205</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>120</v>
+        <v>648</v>
       </c>
       <c r="M4" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>12192</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>1929</v>
+        <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>1602</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>5490</v>
+        <v>6713</v>
       </c>
       <c r="U4" t="n">
-        <v>959</v>
+        <v>1593</v>
       </c>
       <c r="V4" t="n">
-        <v>812</v>
+        <v>1175</v>
       </c>
       <c r="W4" t="n">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="X4" t="n">
-        <v>105</v>
+        <v>189</v>
       </c>
       <c r="Y4" t="n">
-        <v>105</v>
+        <v>150</v>
       </c>
       <c r="Z4" t="n">
-        <v>5490</v>
+        <v>0</v>
       </c>
       <c r="AA4" t="n">
-        <v>959</v>
+        <v>2289</v>
       </c>
       <c r="AB4" t="n">
-        <v>812</v>
+        <v>0</v>
       </c>
       <c r="AC4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AD4" t="n">
-        <v>105</v>
+        <v>567</v>
       </c>
       <c r="AE4" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AF4" t="n">
-        <v>2745</v>
+        <v>0</v>
       </c>
       <c r="AG4" t="n">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="AH4" t="n">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AJ4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AK4" t="n">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="AL4" t="inlineStr">
         <is>
-          <t>21,24384;31,3858;41,3205;22,120;32,120;42,120</t>
+          <t>21,27988;31,6566;41,5310;22,144;32,216;42,172</t>
         </is>
       </c>
       <c r="AM4" t="inlineStr">
         <is>
-          <t>21,24384;31,3858;41,3205;22,120;32,120;42,120</t>
+          <t>21,0;31,9437;41,0;22,0;32,648;42,0</t>
         </is>
       </c>
       <c r="AN4" t="inlineStr">
         <is>
-          <t>21,12192;31,1929;41,1602;22,60;32,60;42,60</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,6713;31,1593;41,1175;22,126;32,189;42,150</t>
         </is>
       </c>
       <c r="AP4" t="inlineStr">
         <is>
-          <t>21,5490;31,959;41,812;22,105;32,105;42,105</t>
+          <t>21,0;31,2289;41,0;22,0;32,567;42,0</t>
         </is>
       </c>
       <c r="AQ4" t="inlineStr">
         <is>
-          <t>21,2745;31,479;41,406;22,52;32,52;42,52</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -5876,141 +5876,141 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32464</v>
+        <v>37318</v>
       </c>
       <c r="C5" t="n">
-        <v>5122</v>
+        <v>8755</v>
       </c>
       <c r="D5" t="n">
-        <v>4318</v>
+        <v>7081</v>
       </c>
       <c r="E5" t="n">
-        <v>160</v>
+        <v>192</v>
       </c>
       <c r="F5" t="n">
-        <v>160</v>
+        <v>288</v>
       </c>
       <c r="G5" t="n">
-        <v>160</v>
+        <v>229</v>
       </c>
       <c r="H5" t="n">
-        <v>32464</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>5122</v>
+        <v>12583</v>
       </c>
       <c r="J5" t="n">
-        <v>4318</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>160</v>
+        <v>864</v>
       </c>
       <c r="M5" t="n">
-        <v>160</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
-        <v>16232</v>
+        <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2561</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>2159</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>5881</v>
+        <v>7205</v>
       </c>
       <c r="U5" t="n">
-        <v>1026</v>
+        <v>1705</v>
       </c>
       <c r="V5" t="n">
-        <v>883</v>
+        <v>1281</v>
       </c>
       <c r="W5" t="n">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="X5" t="n">
-        <v>140</v>
+        <v>252</v>
       </c>
       <c r="Y5" t="n">
-        <v>140</v>
+        <v>200</v>
       </c>
       <c r="Z5" t="n">
-        <v>5881</v>
+        <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>1026</v>
+        <v>2451</v>
       </c>
       <c r="AB5" t="n">
-        <v>883</v>
+        <v>0</v>
       </c>
       <c r="AC5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>140</v>
+        <v>756</v>
       </c>
       <c r="AE5" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>2940</v>
+        <v>0</v>
       </c>
       <c r="AG5" t="n">
-        <v>513</v>
+        <v>0</v>
       </c>
       <c r="AH5" t="n">
-        <v>441</v>
+        <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AJ5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AK5" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AL5" t="inlineStr">
         <is>
-          <t>21,32464;31,5122;41,4318;22,160;32,160;42,160</t>
+          <t>21,37318;31,8755;41,7081;22,192;32,288;42,229</t>
         </is>
       </c>
       <c r="AM5" t="inlineStr">
         <is>
-          <t>21,32464;31,5122;41,4318;22,160;32,160;42,160</t>
+          <t>21,0;31,12583;41,0;22,0;32,864;42,0</t>
         </is>
       </c>
       <c r="AN5" t="inlineStr">
         <is>
-          <t>21,16232;31,2561;41,2159;22,80;32,80;42,80</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,7205;31,1705;41,1281;22,168;32,252;42,200</t>
         </is>
       </c>
       <c r="AP5" t="inlineStr">
         <is>
-          <t>21,5881;31,1026;41,883;22,140;32,140;42,140</t>
+          <t>21,0;31,2451;41,0;22,0;32,756;42,0</t>
         </is>
       </c>
       <c r="AQ5" t="inlineStr">
         <is>
-          <t>21,2940;31,513;41,441;22,70;32,70;42,70</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6019,141 +6019,141 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>40524</v>
+        <v>46647</v>
       </c>
       <c r="C6" t="n">
-        <v>6378</v>
+        <v>10944</v>
       </c>
       <c r="D6" t="n">
-        <v>5453</v>
+        <v>8851</v>
       </c>
       <c r="E6" t="n">
-        <v>200</v>
+        <v>240</v>
       </c>
       <c r="F6" t="n">
-        <v>200</v>
+        <v>360</v>
       </c>
       <c r="G6" t="n">
-        <v>200</v>
+        <v>286</v>
       </c>
       <c r="H6" t="n">
-        <v>40524</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>6378</v>
+        <v>15729</v>
       </c>
       <c r="J6" t="n">
-        <v>5453</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>200</v>
+        <v>1080</v>
       </c>
       <c r="M6" t="n">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>20262</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3189</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>6161</v>
+        <v>7728</v>
       </c>
       <c r="U6" t="n">
-        <v>1075</v>
+        <v>1825</v>
       </c>
       <c r="V6" t="n">
-        <v>932</v>
+        <v>1394</v>
       </c>
       <c r="W6" t="n">
-        <v>175</v>
+        <v>210</v>
       </c>
       <c r="X6" t="n">
-        <v>175</v>
+        <v>315</v>
       </c>
       <c r="Y6" t="n">
-        <v>175</v>
+        <v>250</v>
       </c>
       <c r="Z6" t="n">
-        <v>6161</v>
+        <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>1075</v>
+        <v>2623</v>
       </c>
       <c r="AB6" t="n">
-        <v>932</v>
+        <v>0</v>
       </c>
       <c r="AC6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AD6" t="n">
-        <v>175</v>
+        <v>945</v>
       </c>
       <c r="AE6" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AF6" t="n">
-        <v>3080</v>
+        <v>0</v>
       </c>
       <c r="AG6" t="n">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="AH6" t="n">
-        <v>466</v>
+        <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AJ6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AK6" t="n">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="AL6" t="inlineStr">
         <is>
-          <t>21,40524;31,6378;41,5453;22,200;32,200;42,200</t>
+          <t>21,46647;31,10944;41,8851;22,240;32,360;42,286</t>
         </is>
       </c>
       <c r="AM6" t="inlineStr">
         <is>
-          <t>21,40524;31,6378;41,5453;22,200;32,200;42,200</t>
+          <t>21,0;31,15729;41,0;22,0;32,1080;42,0</t>
         </is>
       </c>
       <c r="AN6" t="inlineStr">
         <is>
-          <t>21,20262;31,3189;41,2726;22,100;32,100;42,100</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,7728;31,1825;41,1394;22,210;32,315;42,250</t>
         </is>
       </c>
       <c r="AP6" t="inlineStr">
         <is>
-          <t>21,6161;31,1075;41,932;22,175;32,175;42,175</t>
+          <t>21,0;31,2623;41,0;22,0;32,945;42,0</t>
         </is>
       </c>
       <c r="AQ6" t="inlineStr">
         <is>
-          <t>21,3080;31,537;41,466;22,87;32,87;42,87</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6162,141 +6162,141 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>47284</v>
+        <v>55977</v>
       </c>
       <c r="C7" t="n">
-        <v>7427</v>
+        <v>13132</v>
       </c>
       <c r="D7" t="n">
-        <v>7075</v>
+        <v>10621</v>
       </c>
       <c r="E7" t="n">
-        <v>240</v>
+        <v>288</v>
       </c>
       <c r="F7" t="n">
-        <v>240</v>
+        <v>432</v>
       </c>
       <c r="G7" t="n">
-        <v>240</v>
+        <v>344</v>
       </c>
       <c r="H7" t="n">
-        <v>47284</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>7427</v>
+        <v>18875</v>
       </c>
       <c r="J7" t="n">
-        <v>7075</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>240</v>
+        <v>1296</v>
       </c>
       <c r="M7" t="n">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>23642</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>3713</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>3537</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>6454</v>
+        <v>8286</v>
       </c>
       <c r="U7" t="n">
-        <v>1126</v>
+        <v>1952</v>
       </c>
       <c r="V7" t="n">
-        <v>984</v>
+        <v>1516</v>
       </c>
       <c r="W7" t="n">
-        <v>210</v>
+        <v>252</v>
       </c>
       <c r="X7" t="n">
-        <v>210</v>
+        <v>378</v>
       </c>
       <c r="Y7" t="n">
-        <v>210</v>
+        <v>301</v>
       </c>
       <c r="Z7" t="n">
-        <v>6454</v>
+        <v>0</v>
       </c>
       <c r="AA7" t="n">
-        <v>1126</v>
+        <v>2806</v>
       </c>
       <c r="AB7" t="n">
-        <v>984</v>
+        <v>0</v>
       </c>
       <c r="AC7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AD7" t="n">
-        <v>210</v>
+        <v>1134</v>
       </c>
       <c r="AE7" t="n">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>3227</v>
+        <v>0</v>
       </c>
       <c r="AG7" t="n">
-        <v>563</v>
+        <v>0</v>
       </c>
       <c r="AH7" t="n">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AJ7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AK7" t="n">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="AL7" t="inlineStr">
         <is>
-          <t>21,47284;31,7427;41,7075;22,240;32,240;42,240</t>
+          <t>21,55977;31,13132;41,10621;22,288;32,432;42,344</t>
         </is>
       </c>
       <c r="AM7" t="inlineStr">
         <is>
-          <t>21,47284;31,7427;41,7075;22,240;32,240;42,240</t>
+          <t>21,0;31,18875;41,0;22,0;32,1296;42,0</t>
         </is>
       </c>
       <c r="AN7" t="inlineStr">
         <is>
-          <t>21,23642;31,3713;41,3537;22,120;32,120;42,120</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,8286;31,1952;41,1516;22,252;32,378;42,301</t>
         </is>
       </c>
       <c r="AP7" t="inlineStr">
         <is>
-          <t>21,6454;31,1126;41,984;22,210;32,210;42,210</t>
+          <t>21,0;31,2806;41,0;22,0;32,1134;42,0</t>
         </is>
       </c>
       <c r="AQ7" t="inlineStr">
         <is>
-          <t>21,3227;31,563;41,492;22,105;32,105;42,105</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6305,141 +6305,141 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>54040</v>
+        <v>65306</v>
       </c>
       <c r="C8" t="n">
-        <v>8470</v>
+        <v>15321</v>
       </c>
       <c r="D8" t="n">
-        <v>8710</v>
+        <v>12392</v>
       </c>
       <c r="E8" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="F8" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="G8" t="n">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="H8" t="n">
-        <v>54040</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>8470</v>
+        <v>22021</v>
       </c>
       <c r="J8" t="n">
-        <v>8710</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>280</v>
+        <v>1512</v>
       </c>
       <c r="M8" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>27020</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>4235</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
-        <v>4355</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>6762</v>
+        <v>8879</v>
       </c>
       <c r="U8" t="n">
-        <v>1179</v>
+        <v>2087</v>
       </c>
       <c r="V8" t="n">
-        <v>1038</v>
+        <v>1646</v>
       </c>
       <c r="W8" t="n">
-        <v>245</v>
+        <v>294</v>
       </c>
       <c r="X8" t="n">
-        <v>245</v>
+        <v>441</v>
       </c>
       <c r="Y8" t="n">
-        <v>245</v>
+        <v>351</v>
       </c>
       <c r="Z8" t="n">
-        <v>6762</v>
+        <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>1179</v>
+        <v>3000</v>
       </c>
       <c r="AB8" t="n">
-        <v>1038</v>
+        <v>0</v>
       </c>
       <c r="AC8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AD8" t="n">
-        <v>245</v>
+        <v>1323</v>
       </c>
       <c r="AE8" t="n">
-        <v>245</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
-        <v>3381</v>
+        <v>0</v>
       </c>
       <c r="AG8" t="n">
-        <v>589</v>
+        <v>0</v>
       </c>
       <c r="AH8" t="n">
-        <v>519</v>
+        <v>0</v>
       </c>
       <c r="AI8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AJ8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AK8" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AL8" t="inlineStr">
         <is>
-          <t>21,54040;31,8470;41,8710;22,280;32,280;42,280</t>
+          <t>21,65306;31,15321;41,12392;22,336;32,504;42,401</t>
         </is>
       </c>
       <c r="AM8" t="inlineStr">
         <is>
-          <t>21,54040;31,8470;41,8710;22,280;32,280;42,280</t>
+          <t>21,0;31,22021;41,0;22,0;32,1512;42,0</t>
         </is>
       </c>
       <c r="AN8" t="inlineStr">
         <is>
-          <t>21,27020;31,4235;41,4355;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,8879;31,2087;41,1646;22,294;32,441;42,351</t>
         </is>
       </c>
       <c r="AP8" t="inlineStr">
         <is>
-          <t>21,6762;31,1179;41,1038;22,245;32,245;42,245</t>
+          <t>21,0;31,3000;41,0;22,0;32,1323;42,0</t>
         </is>
       </c>
       <c r="AQ8" t="inlineStr">
         <is>
-          <t>21,3381;31,589;41,519;22,122;32,122;42,122</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6448,141 +6448,141 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>61321</v>
+        <v>74636</v>
       </c>
       <c r="C9" t="n">
-        <v>9591</v>
+        <v>17510</v>
       </c>
       <c r="D9" t="n">
-        <v>10160</v>
+        <v>14162</v>
       </c>
       <c r="E9" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="F9" t="n">
-        <v>315</v>
+        <v>567</v>
       </c>
       <c r="G9" t="n">
-        <v>315</v>
+        <v>451</v>
       </c>
       <c r="H9" t="n">
-        <v>61321</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>9591</v>
+        <v>25167</v>
       </c>
       <c r="J9" t="n">
-        <v>10160</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>315</v>
+        <v>1701</v>
       </c>
       <c r="M9" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>30660</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>4795</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>5080</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>7353</v>
+        <v>9873</v>
       </c>
       <c r="U9" t="n">
-        <v>1283</v>
+        <v>2316</v>
       </c>
       <c r="V9" t="n">
-        <v>1144</v>
+        <v>1867</v>
       </c>
       <c r="W9" t="n">
-        <v>280</v>
+        <v>336</v>
       </c>
       <c r="X9" t="n">
-        <v>280</v>
+        <v>504</v>
       </c>
       <c r="Y9" t="n">
-        <v>280</v>
+        <v>401</v>
       </c>
       <c r="Z9" t="n">
-        <v>7353</v>
+        <v>0</v>
       </c>
       <c r="AA9" t="n">
-        <v>1283</v>
+        <v>3329</v>
       </c>
       <c r="AB9" t="n">
-        <v>1144</v>
+        <v>0</v>
       </c>
       <c r="AC9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AD9" t="n">
-        <v>280</v>
+        <v>1512</v>
       </c>
       <c r="AE9" t="n">
-        <v>280</v>
+        <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>3676</v>
+        <v>0</v>
       </c>
       <c r="AG9" t="n">
-        <v>641</v>
+        <v>0</v>
       </c>
       <c r="AH9" t="n">
-        <v>572</v>
+        <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AJ9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AK9" t="n">
-        <v>140</v>
+        <v>0</v>
       </c>
       <c r="AL9" t="inlineStr">
         <is>
-          <t>21,61321;31,9591;41,10160;22,315;32,315;42,315</t>
+          <t>21,74636;31,17510;41,14162;22,378;32,567;42,451</t>
         </is>
       </c>
       <c r="AM9" t="inlineStr">
         <is>
-          <t>21,61321;31,9591;41,10160;22,315;32,315;42,315</t>
+          <t>21,0;31,25167;41,0;22,0;32,1701;42,0</t>
         </is>
       </c>
       <c r="AN9" t="inlineStr">
         <is>
-          <t>21,30660;31,4795;41,5080;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,9873;31,2316;41,1867;22,336;32,504;42,401</t>
         </is>
       </c>
       <c r="AP9" t="inlineStr">
         <is>
-          <t>21,7353;31,1283;41,1144;22,280;32,280;42,280</t>
+          <t>21,0;31,3329;41,0;22,0;32,1512;42,0</t>
         </is>
       </c>
       <c r="AQ9" t="inlineStr">
         <is>
-          <t>21,3676;31,641;41,572;22,140;32,140;42,140</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6591,141 +6591,141 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>69601</v>
+        <v>83965</v>
       </c>
       <c r="C10" t="n">
-        <v>10886</v>
+        <v>19699</v>
       </c>
       <c r="D10" t="n">
-        <v>11190</v>
+        <v>15932</v>
       </c>
       <c r="E10" t="n">
-        <v>335</v>
+        <v>402</v>
       </c>
       <c r="F10" t="n">
-        <v>335</v>
+        <v>603</v>
       </c>
       <c r="G10" t="n">
-        <v>335</v>
+        <v>480</v>
       </c>
       <c r="H10" t="n">
-        <v>69601</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>10886</v>
+        <v>28313</v>
       </c>
       <c r="J10" t="n">
-        <v>11190</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>335</v>
+        <v>1809</v>
       </c>
       <c r="M10" t="n">
-        <v>335</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>34800</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>5443</v>
+        <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>5595</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>167</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>7961</v>
+        <v>10690</v>
       </c>
       <c r="U10" t="n">
-        <v>1389</v>
+        <v>2507</v>
       </c>
       <c r="V10" t="n">
-        <v>1254</v>
+        <v>2047</v>
       </c>
       <c r="W10" t="n">
-        <v>315</v>
+        <v>378</v>
       </c>
       <c r="X10" t="n">
-        <v>315</v>
+        <v>567</v>
       </c>
       <c r="Y10" t="n">
-        <v>315</v>
+        <v>451</v>
       </c>
       <c r="Z10" t="n">
-        <v>7961</v>
+        <v>0</v>
       </c>
       <c r="AA10" t="n">
-        <v>1389</v>
+        <v>3604</v>
       </c>
       <c r="AB10" t="n">
-        <v>1254</v>
+        <v>0</v>
       </c>
       <c r="AC10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AD10" t="n">
-        <v>315</v>
+        <v>1701</v>
       </c>
       <c r="AE10" t="n">
-        <v>315</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
-        <v>3980</v>
+        <v>0</v>
       </c>
       <c r="AG10" t="n">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="AH10" t="n">
-        <v>627</v>
+        <v>0</v>
       </c>
       <c r="AI10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AJ10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AK10" t="n">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="AL10" t="inlineStr">
         <is>
-          <t>21,69601;31,10886;41,11190;22,335;32,335;42,335</t>
+          <t>21,83965;31,19699;41,15932;22,402;32,603;42,480</t>
         </is>
       </c>
       <c r="AM10" t="inlineStr">
         <is>
-          <t>21,69601;31,10886;41,11190;22,335;32,335;42,335</t>
+          <t>21,0;31,28313;41,0;22,0;32,1809;42,0</t>
         </is>
       </c>
       <c r="AN10" t="inlineStr">
         <is>
-          <t>21,34800;31,5443;41,5595;22,167;32,167;42,167</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,10690;31,2507;41,2047;22,378;32,567;42,451</t>
         </is>
       </c>
       <c r="AP10" t="inlineStr">
         <is>
-          <t>21,7961;31,1389;41,1254;22,315;32,315;42,315</t>
+          <t>21,0;31,3604;41,0;22,0;32,1701;42,0</t>
         </is>
       </c>
       <c r="AQ10" t="inlineStr">
         <is>
-          <t>21,3980;31,694;41,627;22,157;32,157;42,157</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -6734,141 +6734,141 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>77747</v>
+        <v>93295</v>
       </c>
       <c r="C11" t="n">
-        <v>12160</v>
+        <v>21888</v>
       </c>
       <c r="D11" t="n">
-        <v>12350</v>
+        <v>17703</v>
       </c>
       <c r="E11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="F11" t="n">
-        <v>350</v>
+        <v>630</v>
       </c>
       <c r="G11" t="n">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="H11" t="n">
-        <v>77747</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>12160</v>
+        <v>31459</v>
       </c>
       <c r="J11" t="n">
-        <v>12350</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>350</v>
+        <v>1890</v>
       </c>
       <c r="M11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>38873</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>6080</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
-        <v>6175</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>8582</v>
+        <v>11525</v>
       </c>
       <c r="U11" t="n">
-        <v>1497</v>
+        <v>2703</v>
       </c>
       <c r="V11" t="n">
-        <v>1368</v>
+        <v>2232</v>
       </c>
       <c r="W11" t="n">
-        <v>350</v>
+        <v>420</v>
       </c>
       <c r="X11" t="n">
-        <v>350</v>
+        <v>630</v>
       </c>
       <c r="Y11" t="n">
-        <v>350</v>
+        <v>501</v>
       </c>
       <c r="Z11" t="n">
-        <v>8582</v>
+        <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>1497</v>
+        <v>3886</v>
       </c>
       <c r="AB11" t="n">
-        <v>1368</v>
+        <v>0</v>
       </c>
       <c r="AC11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AD11" t="n">
-        <v>350</v>
+        <v>1890</v>
       </c>
       <c r="AE11" t="n">
-        <v>350</v>
+        <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>4291</v>
+        <v>0</v>
       </c>
       <c r="AG11" t="n">
-        <v>748</v>
+        <v>0</v>
       </c>
       <c r="AH11" t="n">
-        <v>684</v>
+        <v>0</v>
       </c>
       <c r="AI11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AJ11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AK11" t="n">
-        <v>175</v>
+        <v>0</v>
       </c>
       <c r="AL11" t="inlineStr">
         <is>
-          <t>21,77747;31,12160;41,12350;22,350;32,350;42,350</t>
+          <t>21,93295;31,21888;41,17703;22,420;32,630;42,501</t>
         </is>
       </c>
       <c r="AM11" t="inlineStr">
         <is>
-          <t>21,77747;31,12160;41,12350;22,350;32,350;42,350</t>
+          <t>21,0;31,31459;41,0;22,0;32,1890;42,0</t>
         </is>
       </c>
       <c r="AN11" t="inlineStr">
         <is>
-          <t>21,38873;31,6080;41,6175;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,11525;31,2703;41,2232;22,420;32,630;42,501</t>
         </is>
       </c>
       <c r="AP11" t="inlineStr">
         <is>
-          <t>21,8582;31,1497;41,1368;22,350;32,350;42,350</t>
+          <t>21,0;31,3886;41,0;22,0;32,1890;42,0</t>
         </is>
       </c>
       <c r="AQ11" t="inlineStr">
         <is>
-          <t>21,4291;31,748;41,684;22,175;32,175;42,175</t>
+          <t>21,0;31,0;41,0;22,0;32,0;42,0</t>
         </is>
       </c>
     </row>
@@ -7179,13 +7179,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5212291.3498026</v>
+        <v>5472187.913107</v>
       </c>
       <c r="U2" t="n">
-        <v>917075.4570015999</v>
+        <v>978049.8815136999</v>
       </c>
       <c r="V2" t="n">
-        <v>756529.6233000001</v>
+        <v>805801.32584733</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -7226,8 +7226,16 @@
       <c r="AI2" t="n">
         <v>0</v>
       </c>
-      <c r="AJ2" t="inlineStr"/>
-      <c r="AK2" t="inlineStr"/>
+      <c r="AJ2" t="inlineStr">
+        <is>
+          <t>21,0;31,148718;41,0</t>
+        </is>
+      </c>
+      <c r="AK2" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL2" t="n">
         <v>11871577.485405</v>
       </c>
@@ -7247,10 +7255,10 @@
         <v>0</v>
       </c>
       <c r="AR2" t="n">
-        <v>0</v>
+        <v>963932.3820850375</v>
       </c>
       <c r="AS2" t="n">
-        <v>15905547.33708864</v>
+        <v>16869479.71917368</v>
       </c>
     </row>
     <row r="3">
@@ -7314,13 +7322,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>657834.3028077</v>
+        <v>688121.4407015</v>
       </c>
       <c r="U3" t="n">
-        <v>131622.6341792</v>
+        <v>138727.3873469</v>
       </c>
       <c r="V3" t="n">
-        <v>100153.7449</v>
+        <v>106015.03623949</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7361,8 +7369,16 @@
       <c r="AI3" t="n">
         <v>0</v>
       </c>
-      <c r="AJ3" t="inlineStr"/>
-      <c r="AK3" t="inlineStr"/>
+      <c r="AJ3" t="inlineStr">
+        <is>
+          <t>21,0;31,17091;41,0</t>
+        </is>
+      </c>
+      <c r="AK3" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL3" t="n">
         <v>1346174.777585</v>
       </c>
@@ -7382,10 +7398,10 @@
         <v>0</v>
       </c>
       <c r="AR3" t="n">
-        <v>0</v>
+        <v>113012.3599529975</v>
       </c>
       <c r="AS3" t="n">
-        <v>2157304.51181918</v>
+        <v>2270316.871772178</v>
       </c>
     </row>
     <row r="4">
@@ -7854,13 +7870,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>58393.5204</v>
+        <v>67922.28449792</v>
       </c>
       <c r="U7" t="n">
-        <v>10050.525</v>
+        <v>12290.55598</v>
       </c>
       <c r="V7" t="n">
-        <v>6133.878000000001</v>
+        <v>7930.906704600001</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7901,8 +7917,16 @@
       <c r="AI7" t="n">
         <v>0</v>
       </c>
-      <c r="AJ7" t="inlineStr"/>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AJ7" t="inlineStr">
+        <is>
+          <t>21,0;31,3301;41,0</t>
+        </is>
+      </c>
+      <c r="AK7" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL7" t="n">
         <v>119571.3414</v>
       </c>
@@ -7922,10 +7946,10 @@
         <v>0</v>
       </c>
       <c r="AR7" t="n">
-        <v>0</v>
+        <v>35317.89291137</v>
       </c>
       <c r="AS7" t="n">
-        <v>168167.4414</v>
+        <v>203485.33431137</v>
       </c>
     </row>
     <row r="8">
@@ -7989,13 +8013,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>58518.3729612</v>
+        <v>77576.90115704</v>
       </c>
       <c r="U8" t="n">
-        <v>10108.3372</v>
+        <v>14589.39916</v>
       </c>
       <c r="V8" t="n">
-        <v>6133.878000000001</v>
+        <v>9727.935409200001</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -8036,8 +8060,16 @@
       <c r="AI8" t="n">
         <v>0</v>
       </c>
-      <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="inlineStr"/>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>21,0;31,6603;41,0</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL8" t="n">
         <v>119571.3414</v>
       </c>
@@ -8057,10 +8089,10 @@
         <v>0</v>
       </c>
       <c r="AR8" t="n">
-        <v>0</v>
+        <v>70643.68582273999</v>
       </c>
       <c r="AS8" t="n">
-        <v>168691.1981412</v>
+        <v>239334.88396394</v>
       </c>
     </row>
     <row r="9">
@@ -8259,13 +8291,13 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>250894.6513772</v>
+        <v>261143.10574072</v>
       </c>
       <c r="U10" t="n">
-        <v>40550.44076800001</v>
+        <v>42956.55105920001</v>
       </c>
       <c r="V10" t="n">
-        <v>30504.327</v>
+        <v>32419.2981039</v>
       </c>
       <c r="W10" t="n">
         <v>2540</v>
@@ -8306,8 +8338,16 @@
       <c r="AI10" t="n">
         <v>0</v>
       </c>
-      <c r="AJ10" t="inlineStr"/>
-      <c r="AK10" t="inlineStr"/>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>21,0;31,3799;41,0</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL10" t="n">
         <v>547643.1350499999</v>
       </c>
@@ -8327,10 +8367,10 @@
         <v>0</v>
       </c>
       <c r="AR10" t="n">
-        <v>0</v>
+        <v>37861.699220225</v>
       </c>
       <c r="AS10" t="n">
-        <v>718410.5729264</v>
+        <v>756272.272146625</v>
       </c>
     </row>
     <row r="11">
@@ -8394,13 +8434,13 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>256641.2411492</v>
+        <v>307885.5129668</v>
       </c>
       <c r="U11" t="n">
-        <v>42973.88844800001</v>
+        <v>55008.43990400001</v>
       </c>
       <c r="V11" t="n">
-        <v>30504.327</v>
+        <v>40082.7258722</v>
       </c>
       <c r="W11" t="n">
         <v>2540</v>
@@ -8441,8 +8481,16 @@
       <c r="AI11" t="n">
         <v>0</v>
       </c>
-      <c r="AJ11" t="inlineStr"/>
-      <c r="AK11" t="inlineStr"/>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>21,0;31,19000;41,0</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL11" t="n">
         <v>547643.1350499999</v>
       </c>
@@ -8462,10 +8510,10 @@
         <v>0</v>
       </c>
       <c r="AR11" t="n">
-        <v>0</v>
+        <v>189358.47037915</v>
       </c>
       <c r="AS11" t="n">
-        <v>741048.9516904</v>
+        <v>930407.42206955</v>
       </c>
     </row>
     <row r="12">
@@ -8529,13 +8577,13 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>262387.8309212</v>
+        <v>313632.1027388</v>
       </c>
       <c r="U12" t="n">
-        <v>45397.336128</v>
+        <v>57431.887584</v>
       </c>
       <c r="V12" t="n">
-        <v>30504.327</v>
+        <v>40082.7258722</v>
       </c>
       <c r="W12" t="n">
         <v>2540</v>
@@ -8576,8 +8624,16 @@
       <c r="AI12" t="n">
         <v>0</v>
       </c>
-      <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>21,0;31,19000;41,0</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL12" t="n">
         <v>547643.1350499999</v>
       </c>
@@ -8597,10 +8653,10 @@
         <v>0</v>
       </c>
       <c r="AR12" t="n">
-        <v>0</v>
+        <v>189358.47037915</v>
       </c>
       <c r="AS12" t="n">
-        <v>763687.3304544</v>
+        <v>953045.80083355</v>
       </c>
     </row>
     <row r="13">
@@ -8664,13 +8720,13 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>268134.4206932</v>
+        <v>369474.6463739999</v>
       </c>
       <c r="U13" t="n">
-        <v>47820.78380800001</v>
+        <v>71617.24885600001</v>
       </c>
       <c r="V13" t="n">
-        <v>30504.327</v>
+        <v>49481.5467027</v>
       </c>
       <c r="W13" t="n">
         <v>2540</v>
@@ -8711,8 +8767,16 @@
       <c r="AI13" t="n">
         <v>0</v>
       </c>
-      <c r="AJ13" t="inlineStr"/>
-      <c r="AK13" t="inlineStr"/>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>21,0;31,37184;41,0</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL13" t="n">
         <v>547643.1350499999</v>
       </c>
@@ -8732,10 +8796,10 @@
         <v>0</v>
       </c>
       <c r="AR13" t="n">
-        <v>0</v>
+        <v>374654.847802525</v>
       </c>
       <c r="AS13" t="n">
-        <v>786325.7092184001</v>
+        <v>1160980.557020925</v>
       </c>
     </row>
     <row r="14">
@@ -8799,13 +8863,13 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>268134.4206932</v>
+        <v>319378.6925108</v>
       </c>
       <c r="U14" t="n">
-        <v>47820.78380800001</v>
+        <v>59855.33526400001</v>
       </c>
       <c r="V14" t="n">
-        <v>30504.327</v>
+        <v>40082.7258722</v>
       </c>
       <c r="W14" t="n">
         <v>2460</v>
@@ -8846,8 +8910,16 @@
       <c r="AI14" t="n">
         <v>0</v>
       </c>
-      <c r="AJ14" t="inlineStr"/>
-      <c r="AK14" t="inlineStr"/>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>21,0;31,19000;41,0</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL14" t="n">
         <v>547643.1350499999</v>
       </c>
@@ -8867,10 +8939,10 @@
         <v>0</v>
       </c>
       <c r="AR14" t="n">
-        <v>0</v>
+        <v>189358.47037915</v>
       </c>
       <c r="AS14" t="n">
-        <v>786142.7092184001</v>
+        <v>975501.1795975501</v>
       </c>
     </row>
     <row r="15">
@@ -8934,13 +9006,13 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>403599.8066674</v>
+        <v>467862.50623924</v>
       </c>
       <c r="U15" t="n">
-        <v>71475.72111360001</v>
+        <v>86564.31145984001</v>
       </c>
       <c r="V15" t="n">
-        <v>52372.5766</v>
+        <v>64464.89131504</v>
       </c>
       <c r="W15" t="n">
         <v>2620</v>
@@ -8981,8 +9053,16 @@
       <c r="AI15" t="n">
         <v>0</v>
       </c>
-      <c r="AJ15" t="inlineStr"/>
-      <c r="AK15" t="inlineStr"/>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>21,0;31,24744;41,0</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL15" t="n">
         <v>846965.82533</v>
       </c>
@@ -9002,10 +9082,10 @@
         <v>0</v>
       </c>
       <c r="AR15" t="n">
-        <v>0</v>
+        <v>237904.782572376</v>
       </c>
       <c r="AS15" t="n">
-        <v>1210935.59780124</v>
+        <v>1448840.380373616</v>
       </c>
     </row>
     <row r="16">
@@ -9069,13 +9149,13 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>403599.8066674</v>
+        <v>478572.45616788</v>
       </c>
       <c r="U16" t="n">
-        <v>71475.72111360001</v>
+        <v>89079.40985088001</v>
       </c>
       <c r="V16" t="n">
-        <v>52372.5766</v>
+        <v>66479.68474165999</v>
       </c>
       <c r="W16" t="n">
         <v>2700</v>
@@ -9116,8 +9196,16 @@
       <c r="AI16" t="n">
         <v>0</v>
       </c>
-      <c r="AJ16" t="inlineStr"/>
-      <c r="AK16" t="inlineStr"/>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>21,0;31,28869;41,0</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL16" t="n">
         <v>846965.82533</v>
       </c>
@@ -9137,10 +9225,10 @@
         <v>0</v>
       </c>
       <c r="AR16" t="n">
-        <v>0</v>
+        <v>277553.973602257</v>
       </c>
       <c r="AS16" t="n">
-        <v>1211118.59780124</v>
+        <v>1488672.571403497</v>
       </c>
     </row>
     <row r="17">
@@ -9204,13 +9292,13 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1019218.3916169</v>
+        <v>1118012.58228764</v>
       </c>
       <c r="U17" t="n">
-        <v>177500.9914496</v>
+        <v>200690.98625344</v>
       </c>
       <c r="V17" t="n">
-        <v>153045.3</v>
+        <v>172068.20055</v>
       </c>
       <c r="W17" t="n">
         <v>3020</v>
@@ -9251,8 +9339,16 @@
       <c r="AI17" t="n">
         <v>0</v>
       </c>
-      <c r="AJ17" t="inlineStr"/>
-      <c r="AK17" t="inlineStr"/>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>21,0;31,42206;41,0</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL17" t="n">
         <v>1950884.74718</v>
       </c>
@@ -9272,10 +9368,10 @@
         <v>0</v>
       </c>
       <c r="AR17" t="n">
-        <v>0</v>
+        <v>368186.832979736</v>
       </c>
       <c r="AS17" t="n">
-        <v>3137911.70761914</v>
+        <v>3506098.540598876</v>
       </c>
     </row>
     <row r="18">
@@ -9339,13 +9435,13 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5212291.3498026</v>
+        <v>5472187.913107</v>
       </c>
       <c r="U18" t="n">
-        <v>917075.4570015999</v>
+        <v>978049.8815136999</v>
       </c>
       <c r="V18" t="n">
-        <v>756529.6233000001</v>
+        <v>805801.32584733</v>
       </c>
       <c r="W18" t="n">
         <v>3660</v>
@@ -9386,8 +9482,16 @@
       <c r="AI18" t="n">
         <v>0</v>
       </c>
-      <c r="AJ18" t="inlineStr"/>
-      <c r="AK18" t="inlineStr"/>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>21,0;31,148718;41,0</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL18" t="n">
         <v>11871577.485405</v>
       </c>
@@ -9407,10 +9511,10 @@
         <v>0</v>
       </c>
       <c r="AR18" t="n">
-        <v>0</v>
+        <v>963932.3820850375</v>
       </c>
       <c r="AS18" t="n">
-        <v>15905547.33708864</v>
+        <v>16869479.71917368</v>
       </c>
     </row>
     <row r="19">
@@ -9474,13 +9578,13 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8616616.955763301</v>
+        <v>8876513.519067701</v>
       </c>
       <c r="U19" t="n">
-        <v>1513673.4519264</v>
+        <v>1574647.8764385</v>
       </c>
       <c r="V19" t="n">
-        <v>1244085.9356</v>
+        <v>1293357.63814733</v>
       </c>
       <c r="W19" t="n">
         <v>4700</v>
@@ -9521,8 +9625,16 @@
       <c r="AI19" t="n">
         <v>0</v>
       </c>
-      <c r="AJ19" t="inlineStr"/>
-      <c r="AK19" t="inlineStr"/>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>21,0;31,148718;41,0</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL19" t="n">
         <v>19259273.49297</v>
       </c>
@@ -9542,10 +9654,10 @@
         <v>0</v>
       </c>
       <c r="AR19" t="n">
-        <v>0</v>
+        <v>963932.3820850375</v>
       </c>
       <c r="AS19" t="n">
-        <v>26232226.90375546</v>
+        <v>27196159.2858405</v>
       </c>
     </row>
     <row r="20">
@@ -9609,13 +9721,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>224332.8395043</v>
+        <v>229853.15947032</v>
       </c>
       <c r="U20" t="n">
-        <v>39273.7102704</v>
+        <v>40718.96470959</v>
       </c>
       <c r="V20" t="n">
-        <v>26905.1508</v>
+        <v>27723.726554</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9656,8 +9768,16 @@
       <c r="AI20" t="n">
         <v>0</v>
       </c>
-      <c r="AJ20" t="inlineStr"/>
-      <c r="AK20" t="inlineStr"/>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>21,0;31,2412;41,0</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL20" t="n">
         <v>572182.4471700001</v>
       </c>
@@ -9677,10 +9797,10 @@
         <v>0</v>
       </c>
       <c r="AR20" t="n">
-        <v>0</v>
+        <v>20199.386181931</v>
       </c>
       <c r="AS20" t="n">
-        <v>655181.5574700601</v>
+        <v>675380.9436519911</v>
       </c>
     </row>
     <row r="21">
@@ -9744,13 +9864,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>287449.4206447999</v>
+        <v>294846.5830198399</v>
       </c>
       <c r="U21" t="n">
-        <v>50290.8029824</v>
+        <v>52142.41724487999</v>
       </c>
       <c r="V21" t="n">
-        <v>35846.8486</v>
+        <v>37032.187086</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9791,8 +9911,16 @@
       <c r="AI21" t="n">
         <v>0</v>
       </c>
-      <c r="AJ21" t="inlineStr"/>
-      <c r="AK21" t="inlineStr"/>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>21,0;31,3426;41,0</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL21" t="n">
         <v>682449.15117</v>
       </c>
@@ -9812,10 +9940,10 @@
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>0</v>
+        <v>26988.997080652</v>
       </c>
       <c r="AS21" t="n">
-        <v>848157.5906733599</v>
+        <v>875146.5877540119</v>
       </c>
     </row>
     <row r="22">
@@ -9879,13 +10007,13 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>394305.7064068</v>
+        <v>408231.3873424</v>
       </c>
       <c r="U22" t="n">
-        <v>68774.7931888</v>
+        <v>72070.47083045001</v>
       </c>
       <c r="V22" t="n">
-        <v>51385.269</v>
+        <v>53877.955725</v>
       </c>
       <c r="W22" t="n">
         <v>2540</v>
@@ -9926,8 +10054,16 @@
       <c r="AI22" t="n">
         <v>0</v>
       </c>
-      <c r="AJ22" t="inlineStr"/>
-      <c r="AK22" t="inlineStr"/>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>21,0;31,7035;41,0</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL22" t="n">
         <v>870799.0461400001</v>
       </c>
@@ -9947,10 +10083,10 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>0</v>
+        <v>50998.805331735</v>
       </c>
       <c r="AS22" t="n">
-        <v>1176975.07615952</v>
+        <v>1227973.881491255</v>
       </c>
     </row>
     <row r="23">
@@ -10014,13 +10150,13 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>446795.4230873</v>
+        <v>465119.87710264</v>
       </c>
       <c r="U23" t="n">
-        <v>81678.83201280001</v>
+        <v>85996.40973056</v>
       </c>
       <c r="V23" t="n">
-        <v>59228.8487</v>
+        <v>62591.02980937</v>
       </c>
       <c r="W23" t="n">
         <v>2700</v>
@@ -10061,8 +10197,16 @@
       <c r="AI23" t="n">
         <v>0</v>
       </c>
-      <c r="AJ23" t="inlineStr"/>
-      <c r="AK23" t="inlineStr"/>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>21,0;31,9691;41,0</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL23" t="n">
         <v>952241.681965</v>
       </c>
@@ -10082,10 +10226,10 @@
         <v>0</v>
       </c>
       <c r="AR23" t="n">
-        <v>0</v>
+        <v>67448.2816467615</v>
       </c>
       <c r="AS23" t="n">
-        <v>1364139.24400062</v>
+        <v>1431587.525647382</v>
       </c>
     </row>
     <row r="24">
@@ -10149,13 +10293,13 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>516253.94011</v>
+        <v>538299.0531820001</v>
       </c>
       <c r="U24" t="n">
-        <v>98042.5645952</v>
+        <v>103220.36239616</v>
       </c>
       <c r="V24" t="n">
-        <v>72763.32250000001</v>
+        <v>76901.44705225001</v>
       </c>
       <c r="W24" t="n">
         <v>3020</v>
@@ -10196,8 +10340,16 @@
       <c r="AI24" t="n">
         <v>0</v>
       </c>
-      <c r="AJ24" t="inlineStr"/>
-      <c r="AK24" t="inlineStr"/>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>21,0;31,11914;41,0</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL24" t="n">
         <v>1080544.020935</v>
       </c>
@@ -10217,10 +10369,10 @@
         <v>0</v>
       </c>
       <c r="AR24" t="n">
-        <v>0</v>
+        <v>81566.1340740615</v>
       </c>
       <c r="AS24" t="n">
-        <v>1625062.74019188</v>
+        <v>1706628.874265942</v>
       </c>
     </row>
     <row r="25">
@@ -10284,13 +10436,13 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>657834.3028077</v>
+        <v>688121.4407015</v>
       </c>
       <c r="U25" t="n">
-        <v>131622.6341792</v>
+        <v>138727.3873469</v>
       </c>
       <c r="V25" t="n">
-        <v>100153.7449</v>
+        <v>106015.03623949</v>
       </c>
       <c r="W25" t="n">
         <v>3660</v>
@@ -10331,8 +10483,16 @@
       <c r="AI25" t="n">
         <v>0</v>
       </c>
-      <c r="AJ25" t="inlineStr"/>
-      <c r="AK25" t="inlineStr"/>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>21,0;31,17091;41,0</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>21,0;31,0;41,0</t>
+        </is>
+      </c>
       <c r="AL25" t="n">
         <v>1346174.777585</v>
       </c>
@@ -10352,10 +10512,10 @@
         <v>0</v>
       </c>
       <c r="AR25" t="n">
-        <v>0</v>
+        <v>113012.3599529975</v>
       </c>
       <c r="AS25" t="n">
-        <v>2157304.51181918</v>
+        <v>2270316.871772178</v>
       </c>
     </row>
   </sheetData>

--- a/opm_hero_property/heroes/62.xlsx
+++ b/opm_hero_property/heroes/62.xlsx
@@ -6883,7 +6883,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS25"/>
+  <dimension ref="A1:AW25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7079,40 +7079,60 @@
       </c>
       <c r="AL1" t="inlineStr">
         <is>
+          <t>job_contact</t>
+        </is>
+      </c>
+      <c r="AM1" t="inlineStr">
+        <is>
+          <t>attr_addition</t>
+        </is>
+      </c>
+      <c r="AN1" t="inlineStr">
+        <is>
+          <t>pvp_addition</t>
+        </is>
+      </c>
+      <c r="AO1" t="inlineStr">
+        <is>
           <t>基础战力</t>
         </is>
       </c>
-      <c r="AM1" t="inlineStr">
+      <c r="AP1" t="inlineStr">
         <is>
           <t>装备战力</t>
         </is>
       </c>
-      <c r="AN1" t="inlineStr">
+      <c r="AQ1" t="inlineStr">
         <is>
           <t>天赋战力</t>
         </is>
       </c>
-      <c r="AO1" t="inlineStr">
+      <c r="AR1" t="inlineStr">
         <is>
           <t>研究所战力</t>
         </is>
       </c>
-      <c r="AP1" t="inlineStr">
+      <c r="AS1" t="inlineStr">
         <is>
           <t>职阶战力</t>
         </is>
       </c>
-      <c r="AQ1" t="inlineStr">
+      <c r="AT1" t="inlineStr">
         <is>
           <t>机械核心战力</t>
         </is>
       </c>
-      <c r="AR1" t="inlineStr">
+      <c r="AU1" t="inlineStr">
         <is>
           <t>限制器战力</t>
         </is>
       </c>
-      <c r="AS1" t="inlineStr">
+      <c r="AV1" t="inlineStr">
+        <is>
+          <t>收集战力</t>
+        </is>
+      </c>
+      <c r="AW1" t="inlineStr">
         <is>
           <t>总战力</t>
         </is>
@@ -7152,7 +7172,7 @@
         <v>10</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" t="n">
         <v>62</v>
@@ -7179,13 +7199,13 @@
         </is>
       </c>
       <c r="T2" t="n">
-        <v>5472187.913107</v>
+        <v>6424196.224163</v>
       </c>
       <c r="U2" t="n">
-        <v>978049.8815136999</v>
+        <v>1126950.4364497</v>
       </c>
       <c r="V2" t="n">
-        <v>805801.32584733</v>
+        <v>957028.4317113301</v>
       </c>
       <c r="W2" t="n">
         <v>3660</v>
@@ -7224,7 +7244,7 @@
         <v>10</v>
       </c>
       <c r="AI2" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ2" t="inlineStr">
         <is>
@@ -7237,28 +7257,36 @@
         </is>
       </c>
       <c r="AL2" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM2" t="inlineStr"/>
+      <c r="AN2" t="inlineStr"/>
+      <c r="AO2" t="n">
         <v>11871577.485405</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AP2" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AQ2" t="n">
         <v>1431075.20168364</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AR2" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP2" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ2" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR2" t="n">
+      <c r="AS2" t="n">
+        <v>2957282.1988324</v>
+      </c>
+      <c r="AT2" t="n">
+        <v>1899317.8</v>
+      </c>
+      <c r="AU2" t="n">
         <v>963932.3820850375</v>
       </c>
-      <c r="AS2" t="n">
-        <v>16869479.71917368</v>
+      <c r="AV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW2" t="n">
+        <v>19718457.71800608</v>
       </c>
     </row>
     <row r="3">
@@ -7295,7 +7323,7 @@
         <v>10</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L3" t="n">
         <v>62</v>
@@ -7322,13 +7350,13 @@
         </is>
       </c>
       <c r="T3" t="n">
-        <v>688121.4407015</v>
+        <v>795332.8462135</v>
       </c>
       <c r="U3" t="n">
-        <v>138727.3873469</v>
+        <v>155495.9151789</v>
       </c>
       <c r="V3" t="n">
-        <v>106015.03623949</v>
+        <v>123400.31183149</v>
       </c>
       <c r="W3" t="n">
         <v>3660</v>
@@ -7367,7 +7395,7 @@
         <v>10</v>
       </c>
       <c r="AI3" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ3" t="inlineStr">
         <is>
@@ -7380,28 +7408,36 @@
         </is>
       </c>
       <c r="AL3" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM3" t="inlineStr"/>
+      <c r="AN3" t="inlineStr"/>
+      <c r="AO3" t="n">
         <v>1346174.777585</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AP3" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AQ3" t="n">
         <v>161614.73423418</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AR3" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP3" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ3" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR3" t="n">
+      <c r="AS3" t="n">
+        <v>574113.5822068</v>
+      </c>
+      <c r="AT3" t="n">
+        <v>215251.6</v>
+      </c>
+      <c r="AU3" t="n">
         <v>113012.3599529975</v>
       </c>
-      <c r="AS3" t="n">
-        <v>2270316.871772178</v>
+      <c r="AV3" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW3" t="n">
+        <v>2593196.453978977</v>
       </c>
     </row>
     <row r="4">
@@ -7438,7 +7474,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" t="n">
         <v>62</v>
@@ -7465,13 +7501,13 @@
         </is>
       </c>
       <c r="T4" t="n">
-        <v>7667.9812</v>
+        <v>8168.9812</v>
       </c>
       <c r="U4" t="n">
-        <v>1565.0846</v>
+        <v>1643.0846</v>
       </c>
       <c r="V4" t="n">
-        <v>616.5319999999999</v>
+        <v>695.5319999999999</v>
       </c>
       <c r="W4" t="n">
         <v>562</v>
@@ -7510,25 +7546,21 @@
         <v>0</v>
       </c>
       <c r="AI4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ4" t="inlineStr"/>
       <c r="AK4" t="inlineStr"/>
       <c r="AL4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM4" t="inlineStr"/>
+      <c r="AN4" t="inlineStr"/>
+      <c r="AO4" t="n">
         <v>19275.47394</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AP4" t="n">
         <v>4549.950000000001</v>
       </c>
-      <c r="AN4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ4" t="n">
         <v>0</v>
       </c>
@@ -7536,7 +7568,19 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>23825.42394</v>
+        <v>0</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>1493.45</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>25318.87394</v>
       </c>
     </row>
     <row r="5">
@@ -7573,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="L5" t="n">
         <v>62</v>
@@ -7600,13 +7644,13 @@
         </is>
       </c>
       <c r="T5" t="n">
-        <v>20621.6268</v>
+        <v>35358.6268</v>
       </c>
       <c r="U5" t="n">
-        <v>3905.4384</v>
+        <v>6210.4384</v>
       </c>
       <c r="V5" t="n">
-        <v>1912.71</v>
+        <v>4253.71</v>
       </c>
       <c r="W5" t="n">
         <v>673</v>
@@ -7645,25 +7689,21 @@
         <v>0</v>
       </c>
       <c r="AI5" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM5" t="inlineStr"/>
+      <c r="AN5" t="inlineStr"/>
+      <c r="AO5" t="n">
         <v>49461.33426</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AP5" t="n">
         <v>11988.35</v>
       </c>
-      <c r="AN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="AP5" t="n">
-        <v>0</v>
-      </c>
       <c r="AQ5" t="n">
         <v>0</v>
       </c>
@@ -7671,7 +7711,19 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>61449.68425999999</v>
+        <v>0</v>
+      </c>
+      <c r="AT5" t="n">
+        <v>44102.25</v>
+      </c>
+      <c r="AU5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV5" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW5" t="n">
+        <v>105551.93426</v>
       </c>
     </row>
     <row r="6">
@@ -7708,7 +7760,7 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L6" t="n">
         <v>62</v>
@@ -7735,13 +7787,13 @@
         </is>
       </c>
       <c r="T6" t="n">
-        <v>58393.5204</v>
+        <v>121575.5204</v>
       </c>
       <c r="U6" t="n">
-        <v>10050.525</v>
+        <v>19932.525</v>
       </c>
       <c r="V6" t="n">
-        <v>6133.878000000001</v>
+        <v>16169.878</v>
       </c>
       <c r="W6" t="n">
         <v>1000</v>
@@ -7780,33 +7832,41 @@
         <v>0</v>
       </c>
       <c r="AI6" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM6" t="inlineStr"/>
+      <c r="AN6" t="inlineStr"/>
+      <c r="AO6" t="n">
         <v>119571.3414</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AP6" t="n">
         <v>32846</v>
       </c>
-      <c r="AN6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO6" t="n">
+      <c r="AQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR6" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AS6" t="n">
         <v>9406.6</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR6" t="n">
-        <v>0</v>
-      </c>
-      <c r="AS6" t="n">
-        <v>167984.4414</v>
+      <c r="AT6" t="n">
+        <v>189074.8</v>
+      </c>
+      <c r="AU6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW6" t="n">
+        <v>357059.2414000001</v>
       </c>
     </row>
     <row r="7">
@@ -7843,7 +7903,7 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L7" t="n">
         <v>62</v>
@@ -7870,13 +7930,13 @@
         </is>
       </c>
       <c r="T7" t="n">
-        <v>67922.28449792</v>
+        <v>131104.28449792</v>
       </c>
       <c r="U7" t="n">
-        <v>12290.55598</v>
+        <v>22172.55598</v>
       </c>
       <c r="V7" t="n">
-        <v>7930.906704600001</v>
+        <v>17966.9067046</v>
       </c>
       <c r="W7" t="n">
         <v>1080</v>
@@ -7915,7 +7975,7 @@
         <v>1</v>
       </c>
       <c r="AI7" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ7" t="inlineStr">
         <is>
@@ -7928,28 +7988,36 @@
         </is>
       </c>
       <c r="AL7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM7" t="inlineStr"/>
+      <c r="AN7" t="inlineStr"/>
+      <c r="AO7" t="n">
         <v>119571.3414</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AP7" t="n">
         <v>32846</v>
       </c>
-      <c r="AN7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO7" t="n">
+      <c r="AQ7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR7" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AS7" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ7" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR7" t="n">
+      <c r="AT7" t="n">
+        <v>189074.8</v>
+      </c>
+      <c r="AU7" t="n">
         <v>35317.89291137</v>
       </c>
-      <c r="AS7" t="n">
-        <v>203485.33431137</v>
+      <c r="AV7" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW7" t="n">
+        <v>392560.13431137</v>
       </c>
     </row>
     <row r="8">
@@ -7986,7 +8054,7 @@
         <v>2</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L8" t="n">
         <v>62</v>
@@ -8013,13 +8081,13 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>77576.90115704</v>
+        <v>140758.90115704</v>
       </c>
       <c r="U8" t="n">
-        <v>14589.39916</v>
+        <v>24471.39916</v>
       </c>
       <c r="V8" t="n">
-        <v>9727.935409200001</v>
+        <v>19763.9354092</v>
       </c>
       <c r="W8" t="n">
         <v>1080</v>
@@ -8058,7 +8126,7 @@
         <v>2</v>
       </c>
       <c r="AI8" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ8" t="inlineStr">
         <is>
@@ -8071,28 +8139,36 @@
         </is>
       </c>
       <c r="AL8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM8" t="inlineStr"/>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="n">
         <v>119571.3414</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AP8" t="n">
         <v>32846</v>
       </c>
-      <c r="AN8" t="n">
+      <c r="AQ8" t="n">
         <v>523.7567412</v>
       </c>
-      <c r="AO8" t="n">
+      <c r="AR8" t="n">
         <v>6160.5</v>
       </c>
-      <c r="AP8" t="n">
+      <c r="AS8" t="n">
         <v>9589.6</v>
       </c>
-      <c r="AQ8" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR8" t="n">
+      <c r="AT8" t="n">
+        <v>189074.8</v>
+      </c>
+      <c r="AU8" t="n">
         <v>70643.68582273999</v>
       </c>
-      <c r="AS8" t="n">
-        <v>239334.88396394</v>
+      <c r="AV8" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW8" t="n">
+        <v>428409.68396394</v>
       </c>
     </row>
     <row r="9">
@@ -8129,7 +8205,7 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L9" t="n">
         <v>62</v>
@@ -8156,31 +8232,31 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>250319.9924</v>
+        <v>437069.522324</v>
       </c>
       <c r="U9" t="n">
-        <v>40308.09600000001</v>
+        <v>68709.02696</v>
       </c>
       <c r="V9" t="n">
-        <v>30504.327</v>
+        <v>58330.66227</v>
       </c>
       <c r="W9" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X9" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y9" t="n">
         <v>15000</v>
       </c>
       <c r="Z9" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA9" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB9" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC9" t="n">
         <v>0</v>
@@ -8201,33 +8277,41 @@
         <v>0</v>
       </c>
       <c r="AI9" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ9" t="inlineStr"/>
       <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM9" t="inlineStr"/>
+      <c r="AN9" t="inlineStr"/>
+      <c r="AO9" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AP9" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AO9" t="n">
+      <c r="AQ9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR9" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP9" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ9" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR9" t="n">
-        <v>0</v>
-      </c>
       <c r="AS9" t="n">
-        <v>716163.73505</v>
+        <v>44598.7813505</v>
+      </c>
+      <c r="AT9" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU9" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV9" t="n">
+        <v>94347.60000000001</v>
+      </c>
+      <c r="AW9" t="n">
+        <v>1259001.1164005</v>
       </c>
     </row>
     <row r="10">
@@ -8264,7 +8348,7 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L10" t="n">
         <v>62</v>
@@ -8291,31 +8375,31 @@
         </is>
       </c>
       <c r="T10" t="n">
-        <v>261143.10574072</v>
+        <v>505551.6631066849</v>
       </c>
       <c r="U10" t="n">
-        <v>42956.55105920001</v>
+        <v>80647.91937189121</v>
       </c>
       <c r="V10" t="n">
-        <v>32419.2981039</v>
+        <v>66827.2547746302</v>
       </c>
       <c r="W10" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X10" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y10" t="n">
         <v>15000</v>
       </c>
       <c r="Z10" t="n">
-        <v>2160</v>
+        <v>2170</v>
       </c>
       <c r="AA10" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB10" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC10" t="n">
         <v>0</v>
@@ -8336,7 +8420,7 @@
         <v>1</v>
       </c>
       <c r="AI10" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
@@ -8349,28 +8433,40 @@
         </is>
       </c>
       <c r="AL10" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM10" t="inlineStr"/>
+      <c r="AN10" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO10" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AP10" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN10" t="n">
+      <c r="AQ10" t="n">
         <v>2246.8378764</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AR10" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP10" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ10" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR10" t="n">
+      <c r="AS10" t="n">
+        <v>44598.7813505</v>
+      </c>
+      <c r="AT10" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU10" t="n">
         <v>37861.699220225</v>
       </c>
-      <c r="AS10" t="n">
-        <v>756272.272146625</v>
+      <c r="AV10" t="n">
+        <v>253954.9682297329</v>
+      </c>
+      <c r="AW10" t="n">
+        <v>1458717.021726858</v>
       </c>
     </row>
     <row r="11">
@@ -8407,7 +8503,7 @@
         <v>5</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L11" t="n">
         <v>62</v>
@@ -8434,31 +8530,31 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>307885.5129668</v>
+        <v>617310.1536628343</v>
       </c>
       <c r="U11" t="n">
-        <v>55008.43990400001</v>
+        <v>101844.364215104</v>
       </c>
       <c r="V11" t="n">
-        <v>40082.7258722</v>
+        <v>81754.6242427596</v>
       </c>
       <c r="W11" t="n">
-        <v>2540</v>
+        <v>2550</v>
       </c>
       <c r="X11" t="n">
-        <v>720</v>
+        <v>730</v>
       </c>
       <c r="Y11" t="n">
         <v>15000</v>
       </c>
       <c r="Z11" t="n">
-        <v>2360</v>
+        <v>2370</v>
       </c>
       <c r="AA11" t="n">
-        <v>3780</v>
+        <v>3790</v>
       </c>
       <c r="AB11" t="n">
-        <v>1080</v>
+        <v>1120</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -8479,7 +8575,7 @@
         <v>5</v>
       </c>
       <c r="AI11" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
@@ -8492,28 +8588,40 @@
         </is>
       </c>
       <c r="AL11" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM11" t="inlineStr"/>
+      <c r="AN11" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO11" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AP11" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN11" t="n">
+      <c r="AQ11" t="n">
         <v>24885.2166404</v>
       </c>
-      <c r="AO11" t="n">
+      <c r="AR11" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP11" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ11" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR11" t="n">
+      <c r="AS11" t="n">
+        <v>44598.7813505</v>
+      </c>
+      <c r="AT11" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU11" t="n">
         <v>189358.47037915</v>
       </c>
-      <c r="AS11" t="n">
-        <v>930407.42206955</v>
+      <c r="AV11" t="n">
+        <v>423836.1527228697</v>
+      </c>
+      <c r="AW11" t="n">
+        <v>1802733.35614292</v>
       </c>
     </row>
     <row r="12">
@@ -8550,7 +8658,7 @@
         <v>5</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L12" t="n">
         <v>62</v>
@@ -8577,31 +8685,31 @@
         </is>
       </c>
       <c r="T12" t="n">
-        <v>313632.1027388</v>
+        <v>705631.1029487186</v>
       </c>
       <c r="U12" t="n">
-        <v>57431.887584</v>
+        <v>113625.883733424</v>
       </c>
       <c r="V12" t="n">
-        <v>40082.7258722</v>
+        <v>92801.62571017239</v>
       </c>
       <c r="W12" t="n">
-        <v>2540</v>
+        <v>2560</v>
       </c>
       <c r="X12" t="n">
-        <v>720</v>
+        <v>740</v>
       </c>
       <c r="Y12" t="n">
         <v>15000</v>
       </c>
       <c r="Z12" t="n">
-        <v>2560</v>
+        <v>2580</v>
       </c>
       <c r="AA12" t="n">
-        <v>3780</v>
+        <v>3800</v>
       </c>
       <c r="AB12" t="n">
-        <v>1080</v>
+        <v>1160</v>
       </c>
       <c r="AC12" t="n">
         <v>0</v>
@@ -8622,7 +8730,7 @@
         <v>5</v>
       </c>
       <c r="AI12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ12" t="inlineStr">
         <is>
@@ -8635,28 +8743,40 @@
         </is>
       </c>
       <c r="AL12" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM12" t="inlineStr"/>
+      <c r="AN12" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO12" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AP12" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN12" t="n">
+      <c r="AQ12" t="n">
         <v>47523.5954044</v>
       </c>
-      <c r="AO12" t="n">
+      <c r="AR12" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP12" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ12" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR12" t="n">
+      <c r="AS12" t="n">
+        <v>44598.7813505</v>
+      </c>
+      <c r="AT12" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU12" t="n">
         <v>189358.47037915</v>
       </c>
-      <c r="AS12" t="n">
-        <v>953045.80083355</v>
+      <c r="AV12" t="n">
+        <v>634621.4663587853</v>
+      </c>
+      <c r="AW12" t="n">
+        <v>2036157.048542835</v>
       </c>
     </row>
     <row r="13">
@@ -8693,7 +8813,7 @@
         <v>10</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L13" t="n">
         <v>62</v>
@@ -8720,31 +8840,31 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>369474.6463739999</v>
+        <v>858718.3560002579</v>
       </c>
       <c r="U13" t="n">
-        <v>71617.24885600001</v>
+        <v>140957.401592136</v>
       </c>
       <c r="V13" t="n">
-        <v>49481.5467027</v>
+        <v>113448.6690155534</v>
       </c>
       <c r="W13" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X13" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y13" t="n">
         <v>15000</v>
       </c>
       <c r="Z13" t="n">
-        <v>2760</v>
+        <v>2810</v>
       </c>
       <c r="AA13" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB13" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC13" t="n">
         <v>0</v>
@@ -8765,7 +8885,7 @@
         <v>10</v>
       </c>
       <c r="AI13" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ13" t="inlineStr">
         <is>
@@ -8778,28 +8898,40 @@
         </is>
       </c>
       <c r="AL13" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM13" t="inlineStr"/>
+      <c r="AN13" t="inlineStr">
+        <is>
+          <t>1,1,0;2,1,0;3,1,0;4,1,0;1,2,0;2,2,0;3,2,0;4,2,0;5,1,0;5,2,0</t>
+        </is>
+      </c>
+      <c r="AO13" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AP13" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN13" t="n">
+      <c r="AQ13" t="n">
         <v>70161.97416839999</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AR13" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP13" t="n">
-        <v>39130.6</v>
-      </c>
-      <c r="AQ13" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR13" t="n">
+      <c r="AS13" t="n">
+        <v>44598.7813505</v>
+      </c>
+      <c r="AT13" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU13" t="n">
         <v>374654.847802525</v>
       </c>
-      <c r="AS13" t="n">
-        <v>1160980.557020925</v>
+      <c r="AV13" t="n">
+        <v>887611.9354540032</v>
+      </c>
+      <c r="AW13" t="n">
+        <v>2497082.273825428</v>
       </c>
     </row>
     <row r="14">
@@ -8836,7 +8968,7 @@
         <v>5</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L14" t="n">
         <v>62</v>
@@ -8863,31 +8995,31 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>319378.6925108</v>
+        <v>940039.4651116704</v>
       </c>
       <c r="U14" t="n">
-        <v>59855.33526400001</v>
+        <v>143810.832613376</v>
       </c>
       <c r="V14" t="n">
-        <v>40082.7258722</v>
+        <v>113923.1346096128</v>
       </c>
       <c r="W14" t="n">
-        <v>2460</v>
+        <v>2510</v>
       </c>
       <c r="X14" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y14" t="n">
         <v>15000</v>
       </c>
       <c r="Z14" t="n">
-        <v>2760</v>
+        <v>2810</v>
       </c>
       <c r="AA14" t="n">
-        <v>3720</v>
+        <v>3770</v>
       </c>
       <c r="AB14" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -8908,7 +9040,7 @@
         <v>5</v>
       </c>
       <c r="AI14" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ14" t="inlineStr">
         <is>
@@ -8921,28 +9053,40 @@
         </is>
       </c>
       <c r="AL14" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM14" t="inlineStr"/>
+      <c r="AN14" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO14" t="n">
         <v>547643.1350499999</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AP14" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AQ14" t="n">
         <v>70161.97416839999</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AR14" t="n">
         <v>15121.05</v>
       </c>
-      <c r="AP14" t="n">
-        <v>38947.6</v>
-      </c>
-      <c r="AQ14" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
+        <v>44415.7813505</v>
+      </c>
+      <c r="AT14" t="n">
+        <v>443021.6</v>
+      </c>
+      <c r="AU14" t="n">
         <v>189358.47037915</v>
       </c>
-      <c r="AS14" t="n">
-        <v>975501.1795975501</v>
+      <c r="AV14" t="n">
+        <v>1176646.273201189</v>
+      </c>
+      <c r="AW14" t="n">
+        <v>2600637.234149239</v>
       </c>
     </row>
     <row r="15">
@@ -8979,7 +9123,7 @@
         <v>6</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L15" t="n">
         <v>62</v>
@@ -9006,31 +9150,31 @@
         </is>
       </c>
       <c r="T15" t="n">
-        <v>467862.50623924</v>
+        <v>1491878.480239075</v>
       </c>
       <c r="U15" t="n">
-        <v>86564.31145984001</v>
+        <v>236952.7201465088</v>
       </c>
       <c r="V15" t="n">
-        <v>64464.89131504</v>
+        <v>192307.6170414627</v>
       </c>
       <c r="W15" t="n">
-        <v>2620</v>
+        <v>2720</v>
       </c>
       <c r="X15" t="n">
-        <v>720</v>
+        <v>820</v>
       </c>
       <c r="Y15" t="n">
         <v>15000</v>
       </c>
       <c r="Z15" t="n">
-        <v>2760</v>
+        <v>2860</v>
       </c>
       <c r="AA15" t="n">
-        <v>3840</v>
+        <v>3940</v>
       </c>
       <c r="AB15" t="n">
-        <v>1080</v>
+        <v>1480</v>
       </c>
       <c r="AC15" t="n">
         <v>0</v>
@@ -9051,7 +9195,7 @@
         <v>6</v>
       </c>
       <c r="AI15" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ15" t="inlineStr">
         <is>
@@ -9064,28 +9208,40 @@
         </is>
       </c>
       <c r="AL15" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM15" t="inlineStr"/>
+      <c r="AN15" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO15" t="n">
         <v>846965.82533</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AP15" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AQ15" t="n">
         <v>104768.62247124</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AR15" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP15" t="n">
-        <v>111712</v>
-      </c>
-      <c r="AQ15" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
+        <v>128634.8165066</v>
+      </c>
+      <c r="AT15" t="n">
+        <v>810591.75</v>
+      </c>
+      <c r="AU15" t="n">
         <v>237904.782572376</v>
       </c>
-      <c r="AS15" t="n">
-        <v>1448840.380373616</v>
+      <c r="AV15" t="n">
+        <v>1970477.100358181</v>
+      </c>
+      <c r="AW15" t="n">
+        <v>4246832.047238396</v>
       </c>
     </row>
     <row r="16">
@@ -9122,7 +9278,7 @@
         <v>7</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L16" t="n">
         <v>62</v>
@@ -9149,31 +9305,31 @@
         </is>
       </c>
       <c r="T16" t="n">
-        <v>478572.45616788</v>
+        <v>1531189.476641909</v>
       </c>
       <c r="U16" t="n">
-        <v>89079.40985088001</v>
+        <v>244009.2552443597</v>
       </c>
       <c r="V16" t="n">
-        <v>66479.68474165999</v>
+        <v>197899.6721898059</v>
       </c>
       <c r="W16" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X16" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y16" t="n">
         <v>15000</v>
       </c>
       <c r="Z16" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA16" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB16" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC16" t="n">
         <v>0</v>
@@ -9194,7 +9350,7 @@
         <v>7</v>
       </c>
       <c r="AI16" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ16" t="inlineStr">
         <is>
@@ -9207,28 +9363,40 @@
         </is>
       </c>
       <c r="AL16" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM16" t="inlineStr"/>
+      <c r="AN16" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO16" t="n">
         <v>846965.82533</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AP16" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AQ16" t="n">
         <v>104768.62247124</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AR16" t="n">
         <v>33220.2</v>
       </c>
-      <c r="AP16" t="n">
-        <v>111895</v>
-      </c>
-      <c r="AQ16" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
+        <v>128817.8165066</v>
+      </c>
+      <c r="AT16" t="n">
+        <v>810591.75</v>
+      </c>
+      <c r="AU16" t="n">
         <v>277553.973602257</v>
       </c>
-      <c r="AS16" t="n">
-        <v>1488672.571403497</v>
+      <c r="AV16" t="n">
+        <v>2052183.315009278</v>
+      </c>
+      <c r="AW16" t="n">
+        <v>4368370.452919375</v>
       </c>
     </row>
     <row r="17">
@@ -9265,7 +9433,7 @@
         <v>8</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L17" t="n">
         <v>62</v>
@@ -9292,31 +9460,31 @@
         </is>
       </c>
       <c r="T17" t="n">
-        <v>1118012.58228764</v>
+        <v>2765131.599195454</v>
       </c>
       <c r="U17" t="n">
-        <v>200690.98625344</v>
+        <v>435622.2479442637</v>
       </c>
       <c r="V17" t="n">
-        <v>172068.20055</v>
+        <v>381956.1948296</v>
       </c>
       <c r="W17" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X17" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y17" t="n">
         <v>15000</v>
       </c>
       <c r="Z17" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA17" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB17" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC17" t="n">
         <v>0</v>
@@ -9337,7 +9505,7 @@
         <v>8</v>
       </c>
       <c r="AI17" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ17" t="inlineStr">
         <is>
@@ -9350,28 +9518,40 @@
         </is>
       </c>
       <c r="AL17" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM17" t="inlineStr"/>
+      <c r="AN17" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO17" t="n">
         <v>1950884.74718</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AP17" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN17" t="n">
+      <c r="AQ17" t="n">
         <v>231368.46043914</v>
       </c>
-      <c r="AO17" t="n">
+      <c r="AR17" t="n">
         <v>155697.55</v>
       </c>
-      <c r="AP17" t="n">
-        <v>685692</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR17" t="n">
+      <c r="AS17" t="n">
+        <v>763694.3898872001</v>
+      </c>
+      <c r="AT17" t="n">
+        <v>1295137.25</v>
+      </c>
+      <c r="AU17" t="n">
         <v>368186.832979736</v>
       </c>
-      <c r="AS17" t="n">
-        <v>3506098.540598876</v>
+      <c r="AV17" t="n">
+        <v>3104261.049794998</v>
+      </c>
+      <c r="AW17" t="n">
+        <v>7983499.230281075</v>
       </c>
     </row>
     <row r="18">
@@ -9408,7 +9588,7 @@
         <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L18" t="n">
         <v>62</v>
@@ -9435,31 +9615,31 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>5472187.913107</v>
+        <v>9638429.814719036</v>
       </c>
       <c r="U18" t="n">
-        <v>978049.8815136999</v>
+        <v>1528474.187950765</v>
       </c>
       <c r="V18" t="n">
-        <v>805801.32584733</v>
+        <v>1293119.530653267</v>
       </c>
       <c r="W18" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X18" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y18" t="n">
         <v>15000</v>
       </c>
       <c r="Z18" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA18" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB18" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC18" t="n">
         <v>0</v>
@@ -9480,7 +9660,7 @@
         <v>10</v>
       </c>
       <c r="AI18" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ18" t="inlineStr">
         <is>
@@ -9493,28 +9673,40 @@
         </is>
       </c>
       <c r="AL18" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM18" t="inlineStr"/>
+      <c r="AN18" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO18" t="n">
         <v>11871577.485405</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AP18" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AQ18" t="n">
         <v>1431075.20168364</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AR18" t="n">
         <v>481003.7</v>
       </c>
-      <c r="AP18" t="n">
-        <v>2007622</v>
-      </c>
-      <c r="AQ18" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
+        <v>2957282.1988324</v>
+      </c>
+      <c r="AT18" t="n">
+        <v>1899317.8</v>
+      </c>
+      <c r="AU18" t="n">
         <v>963932.3820850375</v>
       </c>
-      <c r="AS18" t="n">
-        <v>16869479.71917368</v>
+      <c r="AV18" t="n">
+        <v>7919671.294829518</v>
+      </c>
+      <c r="AW18" t="n">
+        <v>27638129.0128356</v>
       </c>
     </row>
     <row r="19">
@@ -9551,7 +9743,7 @@
         <v>10</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L19" t="n">
         <v>62</v>
@@ -9578,31 +9770,31 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>8876513.519067701</v>
+        <v>16461996.72572672</v>
       </c>
       <c r="U19" t="n">
-        <v>1574647.8764385</v>
+        <v>2701927.564938864</v>
       </c>
       <c r="V19" t="n">
-        <v>1293357.63814733</v>
+        <v>2281156.037248998</v>
       </c>
       <c r="W19" t="n">
-        <v>4700</v>
+        <v>4900</v>
       </c>
       <c r="X19" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y19" t="n">
         <v>15000</v>
       </c>
       <c r="Z19" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA19" t="n">
-        <v>5400</v>
+        <v>5600</v>
       </c>
       <c r="AB19" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC19" t="n">
         <v>0</v>
@@ -9623,7 +9815,7 @@
         <v>10</v>
       </c>
       <c r="AI19" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ19" t="inlineStr">
         <is>
@@ -9636,28 +9828,40 @@
         </is>
       </c>
       <c r="AL19" t="n">
+        <v>150</v>
+      </c>
+      <c r="AM19" t="inlineStr"/>
+      <c r="AN19" t="inlineStr">
+        <is>
+          <t>1,1,5000;2,1,5000;3,1,5000;4,1,5000;1,2,5000;2,2,5000;3,2,5000;4,2,5000;5,1,5000;5,2,5000</t>
+        </is>
+      </c>
+      <c r="AO19" t="n">
         <v>19259273.49297</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AP19" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN19" t="n">
+      <c r="AQ19" t="n">
         <v>2326440.66078546</v>
       </c>
-      <c r="AO19" t="n">
+      <c r="AR19" t="n">
         <v>1061573.2</v>
       </c>
-      <c r="AP19" t="n">
-        <v>3470670.6</v>
-      </c>
-      <c r="AQ19" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR19" t="n">
+      <c r="AS19" t="n">
+        <v>6359437.8739455</v>
+      </c>
+      <c r="AT19" t="n">
+        <v>1899317.8</v>
+      </c>
+      <c r="AU19" t="n">
         <v>963932.3820850375</v>
       </c>
-      <c r="AS19" t="n">
-        <v>27196159.2858405</v>
+      <c r="AV19" t="n">
+        <v>16257868.77820062</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>48242113.13798662</v>
       </c>
     </row>
     <row r="20">
@@ -9694,7 +9898,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="L20" t="n">
         <v>62</v>
@@ -9721,13 +9925,13 @@
         </is>
       </c>
       <c r="T20" t="n">
-        <v>229853.15947032</v>
+        <v>236968.15947032</v>
       </c>
       <c r="U20" t="n">
-        <v>40718.96470959</v>
+        <v>41830.96470959</v>
       </c>
       <c r="V20" t="n">
-        <v>27723.726554</v>
+        <v>28876.726554</v>
       </c>
       <c r="W20" t="n">
         <v>1080</v>
@@ -9766,7 +9970,7 @@
         <v>1</v>
       </c>
       <c r="AI20" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AJ20" t="inlineStr">
         <is>
@@ -9779,28 +9983,36 @@
         </is>
       </c>
       <c r="AL20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM20" t="inlineStr"/>
+      <c r="AN20" t="inlineStr"/>
+      <c r="AO20" t="n">
         <v>572182.4471700001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AP20" t="n">
         <v>32846</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AQ20" t="n">
         <v>2473.41030006</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AR20" t="n">
         <v>14696.9</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AS20" t="n">
         <v>32982.8</v>
       </c>
-      <c r="AQ20" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR20" t="n">
+      <c r="AT20" t="n">
+        <v>21417.55</v>
+      </c>
+      <c r="AU20" t="n">
         <v>20199.386181931</v>
       </c>
-      <c r="AS20" t="n">
-        <v>675380.9436519911</v>
+      <c r="AV20" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW20" t="n">
+        <v>696798.493651991</v>
       </c>
     </row>
     <row r="21">
@@ -9837,7 +10049,7 @@
         <v>2</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="L21" t="n">
         <v>62</v>
@@ -9864,13 +10076,13 @@
         </is>
       </c>
       <c r="T21" t="n">
-        <v>294846.5830198399</v>
+        <v>309518.1572758399</v>
       </c>
       <c r="U21" t="n">
-        <v>52142.41724487999</v>
+        <v>54460.99999288</v>
       </c>
       <c r="V21" t="n">
-        <v>37032.187086</v>
+        <v>39347.525572</v>
       </c>
       <c r="W21" t="n">
         <v>1410</v>
@@ -9909,7 +10121,7 @@
         <v>2</v>
       </c>
       <c r="AI21" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AJ21" t="inlineStr">
         <is>
@@ -9922,28 +10134,36 @@
         </is>
       </c>
       <c r="AL21" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM21" t="inlineStr"/>
+      <c r="AN21" t="inlineStr"/>
+      <c r="AO21" t="n">
         <v>682449.15117</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AP21" t="n">
         <v>49269</v>
       </c>
-      <c r="AN21" t="n">
+      <c r="AQ21" t="n">
         <v>31445.73950336</v>
       </c>
-      <c r="AO21" t="n">
+      <c r="AR21" t="n">
         <v>19028.1</v>
       </c>
-      <c r="AP21" t="n">
-        <v>65965.60000000001</v>
-      </c>
-      <c r="AQ21" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR21" t="n">
+      <c r="AS21" t="n">
+        <v>72781.8415117</v>
+      </c>
+      <c r="AT21" t="n">
+        <v>37166.75</v>
+      </c>
+      <c r="AU21" t="n">
         <v>26988.997080652</v>
       </c>
-      <c r="AS21" t="n">
-        <v>875146.5877540119</v>
+      <c r="AV21" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW21" t="n">
+        <v>919129.5792657118</v>
       </c>
     </row>
     <row r="22">
@@ -9980,7 +10200,7 @@
         <v>5</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="L22" t="n">
         <v>62</v>
@@ -10007,31 +10227,31 @@
         </is>
       </c>
       <c r="T22" t="n">
-        <v>408231.3873424</v>
+        <v>537750.4917445208</v>
       </c>
       <c r="U22" t="n">
-        <v>72070.47083045001</v>
+        <v>90882.21318378745</v>
       </c>
       <c r="V22" t="n">
-        <v>53877.955725</v>
+        <v>69857.76256986</v>
       </c>
       <c r="W22" t="n">
-        <v>2540</v>
+        <v>2590</v>
       </c>
       <c r="X22" t="n">
-        <v>720</v>
+        <v>770</v>
       </c>
       <c r="Y22" t="n">
         <v>15000</v>
       </c>
       <c r="Z22" t="n">
-        <v>2560</v>
+        <v>2610</v>
       </c>
       <c r="AA22" t="n">
-        <v>3780</v>
+        <v>3830</v>
       </c>
       <c r="AB22" t="n">
-        <v>1080</v>
+        <v>1280</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -10052,7 +10272,7 @@
         <v>5</v>
       </c>
       <c r="AI22" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
@@ -10065,28 +10285,40 @@
         </is>
       </c>
       <c r="AL22" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM22" t="inlineStr"/>
+      <c r="AN22" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO22" t="n">
         <v>870799.0461400001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AP22" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AQ22" t="n">
         <v>73053.98001952001</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AR22" t="n">
         <v>23382.7</v>
       </c>
-      <c r="AP22" t="n">
-        <v>95470.39999999999</v>
-      </c>
-      <c r="AQ22" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
+        <v>104170.1404614</v>
+      </c>
+      <c r="AT22" t="n">
+        <v>50202.55</v>
+      </c>
+      <c r="AU22" t="n">
         <v>50998.805331735</v>
       </c>
-      <c r="AS22" t="n">
-        <v>1227973.881491255</v>
+      <c r="AV22" t="n">
+        <v>292901.7255366942</v>
+      </c>
+      <c r="AW22" t="n">
+        <v>1579777.897489349</v>
       </c>
     </row>
     <row r="23">
@@ -10123,7 +10355,7 @@
         <v>7</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="L23" t="n">
         <v>62</v>
@@ -10150,31 +10382,31 @@
         </is>
       </c>
       <c r="T23" t="n">
-        <v>465119.87710264</v>
+        <v>686061.3300042375</v>
       </c>
       <c r="U23" t="n">
-        <v>85996.40973056</v>
+        <v>122165.0722061875</v>
       </c>
       <c r="V23" t="n">
-        <v>62591.02980937</v>
+        <v>90547.21502539191</v>
       </c>
       <c r="W23" t="n">
-        <v>2700</v>
+        <v>2900</v>
       </c>
       <c r="X23" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y23" t="n">
         <v>15000</v>
       </c>
       <c r="Z23" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA23" t="n">
-        <v>3900</v>
+        <v>4100</v>
       </c>
       <c r="AB23" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC23" t="n">
         <v>0</v>
@@ -10195,7 +10427,7 @@
         <v>7</v>
       </c>
       <c r="AI23" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
@@ -10208,28 +10440,40 @@
         </is>
       </c>
       <c r="AL23" t="n">
+        <v>20</v>
+      </c>
+      <c r="AM23" t="inlineStr"/>
+      <c r="AN23" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO23" t="n">
         <v>952241.681965</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AP23" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN23" t="n">
+      <c r="AQ23" t="n">
         <v>116940.96203562</v>
       </c>
-      <c r="AO23" t="n">
+      <c r="AR23" t="n">
         <v>30363.65</v>
       </c>
-      <c r="AP23" t="n">
-        <v>150324</v>
-      </c>
-      <c r="AQ23" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR23" t="n">
+      <c r="AS23" t="n">
+        <v>169352.3336393</v>
+      </c>
+      <c r="AT23" t="n">
+        <v>91863.39999999999</v>
+      </c>
+      <c r="AU23" t="n">
         <v>67448.2816467615</v>
       </c>
-      <c r="AS23" t="n">
-        <v>1431587.525647382</v>
+      <c r="AV23" t="n">
+        <v>522761.5553362534</v>
+      </c>
+      <c r="AW23" t="n">
+        <v>2065240.814622935</v>
       </c>
     </row>
     <row r="24">
@@ -10266,7 +10510,7 @@
         <v>8</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="L24" t="n">
         <v>62</v>
@@ -10293,31 +10537,31 @@
         </is>
       </c>
       <c r="T24" t="n">
-        <v>538299.0531820001</v>
+        <v>866377.345482652</v>
       </c>
       <c r="U24" t="n">
-        <v>103220.36239616</v>
+        <v>157307.8640040371</v>
       </c>
       <c r="V24" t="n">
-        <v>76901.44705225001</v>
+        <v>119925.3331075117</v>
       </c>
       <c r="W24" t="n">
-        <v>3020</v>
+        <v>3220</v>
       </c>
       <c r="X24" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y24" t="n">
         <v>15000</v>
       </c>
       <c r="Z24" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA24" t="n">
-        <v>4140</v>
+        <v>4340</v>
       </c>
       <c r="AB24" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC24" t="n">
         <v>0</v>
@@ -10338,7 +10582,7 @@
         <v>8</v>
       </c>
       <c r="AI24" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="AJ24" t="inlineStr">
         <is>
@@ -10351,28 +10595,40 @@
         </is>
       </c>
       <c r="AL24" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM24" t="inlineStr"/>
+      <c r="AN24" t="inlineStr">
+        <is>
+          <t>1,1,1000;2,1,1000;3,1,1000;4,1,1000;1,2,1000;2,2,1000;3,2,1000;4,2,1000;5,1,1000;5,2,1000</t>
+        </is>
+      </c>
+      <c r="AO24" t="n">
         <v>1080544.020935</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AP24" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN24" t="n">
+      <c r="AQ24" t="n">
         <v>131365.51925688</v>
       </c>
-      <c r="AO24" t="n">
+      <c r="AR24" t="n">
         <v>43173.05</v>
       </c>
-      <c r="AP24" t="n">
-        <v>255711.2</v>
-      </c>
-      <c r="AQ24" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR24" t="n">
+      <c r="AS24" t="n">
+        <v>298899.9608374</v>
+      </c>
+      <c r="AT24" t="n">
+        <v>146772.05</v>
+      </c>
+      <c r="AU24" t="n">
         <v>81566.1340740615</v>
       </c>
-      <c r="AS24" t="n">
-        <v>1706628.874265942</v>
+      <c r="AV24" t="n">
+        <v>761108.5873753593</v>
+      </c>
+      <c r="AW24" t="n">
+        <v>2657698.272478701</v>
       </c>
     </row>
     <row r="25">
@@ -10409,7 +10665,7 @@
         <v>10</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L25" t="n">
         <v>62</v>
@@ -10436,31 +10692,31 @@
         </is>
       </c>
       <c r="T25" t="n">
-        <v>688121.4407015</v>
+        <v>1487102.507165688</v>
       </c>
       <c r="U25" t="n">
-        <v>138727.3873469</v>
+        <v>266953.7960763728</v>
       </c>
       <c r="V25" t="n">
-        <v>106015.03623949</v>
+        <v>210724.6259728401</v>
       </c>
       <c r="W25" t="n">
-        <v>3660</v>
+        <v>3860</v>
       </c>
       <c r="X25" t="n">
-        <v>720</v>
+        <v>920</v>
       </c>
       <c r="Y25" t="n">
         <v>15000</v>
       </c>
       <c r="Z25" t="n">
-        <v>2760</v>
+        <v>2960</v>
       </c>
       <c r="AA25" t="n">
-        <v>4620</v>
+        <v>4820</v>
       </c>
       <c r="AB25" t="n">
-        <v>1080</v>
+        <v>1880</v>
       </c>
       <c r="AC25" t="n">
         <v>0</v>
@@ -10481,7 +10737,7 @@
         <v>10</v>
       </c>
       <c r="AI25" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="AJ25" t="inlineStr">
         <is>
@@ -10494,28 +10750,40 @@
         </is>
       </c>
       <c r="AL25" t="n">
+        <v>80</v>
+      </c>
+      <c r="AM25" t="inlineStr"/>
+      <c r="AN25" t="inlineStr">
+        <is>
+          <t>1,1,3000;2,1,3000;3,1,3000;4,1,3000;1,2,3000;2,2,3000;3,2,3000;4,2,3000;5,1,3000;5,2,3000</t>
+        </is>
+      </c>
+      <c r="AO25" t="n">
         <v>1346174.777585</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AP25" t="n">
         <v>114268.95</v>
       </c>
-      <c r="AN25" t="n">
+      <c r="AQ25" t="n">
         <v>161614.73423418</v>
       </c>
-      <c r="AO25" t="n">
+      <c r="AR25" t="n">
         <v>68760.45</v>
       </c>
-      <c r="AP25" t="n">
-        <v>466485.6</v>
-      </c>
-      <c r="AQ25" t="n">
-        <v>0</v>
-      </c>
-      <c r="AR25" t="n">
+      <c r="AS25" t="n">
+        <v>574113.5822068</v>
+      </c>
+      <c r="AT25" t="n">
+        <v>215251.6</v>
+      </c>
+      <c r="AU25" t="n">
         <v>113012.3599529975</v>
       </c>
-      <c r="AS25" t="n">
-        <v>2270316.871772178</v>
+      <c r="AV25" t="n">
+        <v>1965343.845457514</v>
+      </c>
+      <c r="AW25" t="n">
+        <v>4558540.299436491</v>
       </c>
     </row>
   </sheetData>
